--- a/Doc/PHD_Papers/Thesis_Paper/Stable Wireless Blockchain Consensus Protocol/测试数据/Sybil_test/最终测试数据2/100nodes/100.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Stable Wireless Blockchain Consensus Protocol/测试数据/Sybil_test/最终测试数据2/100nodes/100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\测试数据\Sybil_test\最终测试数据\100nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Stable Wireless Blockchain Consensus Protocol\测试数据\Sybil_test\最终测试数据2\100nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBBC30D-FBA9-464C-B9F8-89ED01BF0EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D0B8E4-71CA-44F4-9BBE-500958B10FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -318,34 +318,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.235371</c:v>
+                  <c:v>0.21320900000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23531199999999999</c:v>
+                  <c:v>0.23513999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.235184</c:v>
+                  <c:v>0.23528299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23541999999999999</c:v>
+                  <c:v>0.23474300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.213869</c:v>
+                  <c:v>0.21228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23524700000000001</c:v>
+                  <c:v>0.23569899999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23613999999999999</c:v>
+                  <c:v>0.23629</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23629900000000001</c:v>
+                  <c:v>0.23685999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23772699999999999</c:v>
+                  <c:v>0.21887599999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21957299999999999</c:v>
+                  <c:v>0.218415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,34 +395,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8696</c:v>
+                  <c:v>8639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8699</c:v>
+                  <c:v>8705</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8703</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8695</c:v>
+                  <c:v>8720</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8612</c:v>
+                  <c:v>8677</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8701</c:v>
+                  <c:v>8684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8668</c:v>
+                  <c:v>8663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8662</c:v>
+                  <c:v>8642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8610</c:v>
+                  <c:v>8415</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8389</c:v>
+                  <c:v>8433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1598,13 +1598,13 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1616,29 +1616,29 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>2.5585937500001099E-2</v>
+        <v>1.25558035714285E-4</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
         <f>AVERAGE(J2:J11)</f>
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
         <v>14</v>
@@ -1650,17 +1650,17 @@
         <v>17</v>
       </c>
       <c r="S2">
-        <v>0.25924944196424099</v>
+        <v>1.50809151785713E-2</v>
       </c>
       <c r="T2" t="s">
         <v>18</v>
       </c>
       <c r="U2">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <f>S2-H2</f>
-        <v>0.23366350446423989</v>
+        <v>1.4955357142857015E-2</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1668,7 +1668,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1686,7 +1686,7 @@
         <v>15</v>
       </c>
       <c r="H3">
-        <v>0.25926339285709799</v>
+        <v>2.9868861607144501E-2</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
         <v>13</v>
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="S3">
-        <v>0.493010602678845</v>
+        <v>0.26406249999996101</v>
       </c>
       <c r="T3" t="s">
         <v>18</v>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W66" si="1">S3-H3</f>
-        <v>0.23374720982174702</v>
+        <v>0.23419363839281651</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1738,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1756,7 +1756,7 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <v>0.493024553571702</v>
+        <v>0.264076450892819</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -1772,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
         <v>13</v>
@@ -1790,7 +1790,7 @@
         <v>17</v>
       </c>
       <c r="S4">
-        <v>0.72805524553630896</v>
+        <v>0.50358537946457405</v>
       </c>
       <c r="T4" t="s">
         <v>18</v>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="W4">
         <f t="shared" si="1"/>
-        <v>0.23503069196460696</v>
+        <v>0.23950892857175504</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -1808,7 +1808,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1826,7 +1826,7 @@
         <v>15</v>
       </c>
       <c r="H5">
-        <v>0.72806919642916601</v>
+        <v>0.50359933035743099</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
@@ -1860,7 +1860,7 @@
         <v>17</v>
       </c>
       <c r="S5">
-        <v>0.96494140625091795</v>
+        <v>0.73745814732203596</v>
       </c>
       <c r="T5" t="s">
         <v>18</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
-        <v>0.23687220982175194</v>
+        <v>0.23385881696460498</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -1878,7 +1878,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1896,7 +1896,7 @@
         <v>15</v>
       </c>
       <c r="H6">
-        <v>0.96495535714377501</v>
+        <v>0.73747209821489301</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -1912,7 +1912,7 @@
         <v>12</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s">
         <v>13</v>
@@ -1930,7 +1930,7 @@
         <v>17</v>
       </c>
       <c r="S6">
-        <v>1.2047154017869499</v>
+        <v>0.97333984375092897</v>
       </c>
       <c r="T6" t="s">
         <v>18</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="1"/>
-        <v>0.23976004464317491</v>
+        <v>0.23586774553603596</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -1948,7 +1948,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="H7">
-        <v>1.20472935267981</v>
+        <v>0.97335379464378602</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
@@ -1982,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="M7">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N7" t="s">
         <v>13</v>
@@ -2000,7 +2000,7 @@
         <v>17</v>
       </c>
       <c r="S7">
-        <v>1.4406947544658499</v>
+        <v>1.2086077008941001</v>
       </c>
       <c r="T7" t="s">
         <v>18</v>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="1"/>
-        <v>0.23596540178603997</v>
+        <v>0.23525390625031406</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -2018,7 +2018,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -2036,7 +2036,7 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>1.44070870535871</v>
+        <v>1.2086216517869599</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
@@ -2052,7 +2052,7 @@
         <v>12</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="N8" t="s">
         <v>13</v>
@@ -2070,7 +2070,7 @@
         <v>17</v>
       </c>
       <c r="S8">
-        <v>1.6749581473233099</v>
+        <v>1.4426478794658499</v>
       </c>
       <c r="T8" t="s">
         <v>18</v>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
-        <v>0.23424944196459996</v>
+        <v>0.23402622767889003</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -2088,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -2106,7 +2106,7 @@
         <v>15</v>
       </c>
       <c r="H9">
-        <v>1.67497209821617</v>
+        <v>1.44266183035871</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
@@ -2122,7 +2122,7 @@
         <v>12</v>
       </c>
       <c r="M9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N9" t="s">
         <v>13</v>
@@ -2140,7 +2140,7 @@
         <v>17</v>
       </c>
       <c r="S9">
-        <v>1.9097098214307699</v>
+        <v>1.6757952008947401</v>
       </c>
       <c r="T9" t="s">
         <v>18</v>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="1"/>
-        <v>0.23473772321459996</v>
+        <v>0.23313337053603012</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -2158,7 +2158,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -2176,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="H10">
-        <v>1.90972377232363</v>
+        <v>1.6758091517875999</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
@@ -2192,7 +2192,7 @@
         <v>12</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N10" t="s">
         <v>13</v>
@@ -2210,7 +2210,7 @@
         <v>17</v>
       </c>
       <c r="S10">
-        <v>2.1438755580359499</v>
+        <v>1.9127371651807801</v>
       </c>
       <c r="T10" t="s">
         <v>18</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
-        <v>0.23415178571231987</v>
+        <v>0.23692801339318015</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -2228,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="H11">
-        <v>2.1438895089288001</v>
+        <v>1.9127511160736299</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
@@ -2262,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="N11" t="s">
         <v>13</v>
@@ -2280,7 +2280,7 @@
         <v>17</v>
       </c>
       <c r="S11">
-        <v>2.37942243303252</v>
+        <v>2.1471121651787599</v>
       </c>
       <c r="T11" t="s">
         <v>18</v>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>0.23553292410371984</v>
+        <v>0.23436104910513</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -2332,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -2350,7 +2350,7 @@
         <v>15</v>
       </c>
       <c r="H13">
-        <v>2.5585937500001099E-2</v>
+        <v>2.5599888392858199E-2</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
@@ -2366,7 +2366,7 @@
         <v>12</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="N13" t="s">
         <v>13</v>
@@ -2384,7 +2384,7 @@
         <v>17</v>
       </c>
       <c r="S13">
-        <v>0.26014229910709902</v>
+        <v>0.25891462053566899</v>
       </c>
       <c r="T13" t="s">
         <v>18</v>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="W13">
         <f t="shared" si="1"/>
-        <v>0.23455636160709792</v>
+        <v>0.23331473214281079</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -2402,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -2420,7 +2420,7 @@
         <v>15</v>
       </c>
       <c r="H14">
-        <v>0.26015624999995601</v>
+        <v>0.25892857142852599</v>
       </c>
       <c r="I14" t="s">
         <v>16</v>
@@ -2436,7 +2436,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N14" t="s">
         <v>13</v>
@@ -2454,7 +2454,7 @@
         <v>17</v>
       </c>
       <c r="S14">
-        <v>0.49289899553598798</v>
+        <v>0.49368024553598899</v>
       </c>
       <c r="T14" t="s">
         <v>18</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="W14">
         <f t="shared" si="1"/>
-        <v>0.23274274553603197</v>
+        <v>0.234751674107463</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -2472,7 +2472,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -2490,7 +2490,7 @@
         <v>15</v>
       </c>
       <c r="H15">
-        <v>0.49291294642884498</v>
+        <v>0.49369419642884599</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
@@ -2506,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="M15">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="N15" t="s">
         <v>13</v>
@@ -2524,7 +2524,7 @@
         <v>17</v>
       </c>
       <c r="S15">
-        <v>0.73028738839345497</v>
+        <v>0.72850167410773803</v>
       </c>
       <c r="T15" t="s">
         <v>18</v>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
-        <v>0.23737444196460999</v>
+        <v>0.23480747767889204</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -2542,7 +2542,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -2560,7 +2560,7 @@
         <v>15</v>
       </c>
       <c r="H16">
-        <v>0.73030133928631202</v>
+        <v>0.72851562500059497</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
@@ -2576,7 +2576,7 @@
         <v>12</v>
       </c>
       <c r="M16">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N16" t="s">
         <v>13</v>
@@ -2594,7 +2594,7 @@
         <v>17</v>
       </c>
       <c r="S16">
-        <v>0.96778738839377898</v>
+        <v>0.96404854910805904</v>
       </c>
       <c r="T16" t="s">
         <v>18</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="W16">
         <f t="shared" si="1"/>
-        <v>0.23748604910746696</v>
+        <v>0.23553292410746407</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -2630,7 +2630,7 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>0.96780133928663603</v>
+        <v>0.96406250000091598</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
@@ -2646,7 +2646,7 @@
         <v>12</v>
       </c>
       <c r="M17">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N17" t="s">
         <v>13</v>
@@ -2664,7 +2664,7 @@
         <v>17</v>
       </c>
       <c r="S17">
-        <v>1.2022739955369499</v>
+        <v>1.1988002232155199</v>
       </c>
       <c r="T17" t="s">
         <v>18</v>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="W17">
         <f t="shared" si="1"/>
-        <v>0.23447265625031388</v>
+        <v>0.23473772321460395</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -2682,7 +2682,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -2700,7 +2700,7 @@
         <v>15</v>
       </c>
       <c r="H18">
-        <v>1.20228794642981</v>
+        <v>1.19881417410838</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
@@ -2716,7 +2716,7 @@
         <v>12</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N18" t="s">
         <v>13</v>
@@ -2734,7 +2734,7 @@
         <v>17</v>
       </c>
       <c r="S18">
-        <v>1.4374302455372701</v>
+        <v>1.43362165178727</v>
       </c>
       <c r="T18" t="s">
         <v>18</v>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="W18">
         <f t="shared" si="1"/>
-        <v>0.2351422991074601</v>
+        <v>0.23480747767888999</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -2752,7 +2752,7 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -2770,7 +2770,7 @@
         <v>15</v>
       </c>
       <c r="H19">
-        <v>1.4374441964301301</v>
+        <v>1.43363560268012</v>
       </c>
       <c r="I19" t="s">
         <v>16</v>
@@ -2786,7 +2786,7 @@
         <v>12</v>
       </c>
       <c r="M19">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N19" t="s">
         <v>13</v>
@@ -2804,7 +2804,7 @@
         <v>17</v>
       </c>
       <c r="S19">
-        <v>1.6723632812518801</v>
+        <v>1.66911272321616</v>
       </c>
       <c r="T19" t="s">
         <v>18</v>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="W19">
         <f t="shared" si="1"/>
-        <v>0.23491908482174995</v>
+        <v>0.23547712053603997</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -2822,7 +2822,7 @@
         <v>12</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -2840,7 +2840,7 @@
         <v>15</v>
       </c>
       <c r="H20">
-        <v>1.6723772321447401</v>
+        <v>1.66912667410902</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
@@ -2856,7 +2856,7 @@
         <v>12</v>
       </c>
       <c r="M20">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
         <v>13</v>
@@ -2874,7 +2874,7 @@
         <v>17</v>
       </c>
       <c r="S20">
-        <v>1.90740792410934</v>
+        <v>1.90650111607363</v>
       </c>
       <c r="T20" t="s">
         <v>18</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="W20">
         <f t="shared" si="1"/>
-        <v>0.23503069196459991</v>
+        <v>0.23737444196460999</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
@@ -2892,7 +2892,7 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -2910,7 +2910,7 @@
         <v>15</v>
       </c>
       <c r="H21">
-        <v>1.9074218750022001</v>
+        <v>1.9065150669664801</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -2926,7 +2926,7 @@
         <v>12</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N21" t="s">
         <v>13</v>
@@ -2944,7 +2944,7 @@
         <v>17</v>
       </c>
       <c r="S21">
-        <v>2.1447405133930801</v>
+        <v>2.14044363839314</v>
       </c>
       <c r="T21" t="s">
         <v>18</v>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="W21">
         <f t="shared" si="1"/>
-        <v>0.23731863839088008</v>
+        <v>0.2339285714266599</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -2962,7 +2962,7 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -2980,7 +2980,7 @@
         <v>15</v>
       </c>
       <c r="H22">
-        <v>2.14475446428593</v>
+        <v>2.1404575892860001</v>
       </c>
       <c r="I22" t="s">
         <v>16</v>
@@ -2996,7 +2996,7 @@
         <v>12</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N22" t="s">
         <v>13</v>
@@ -3014,7 +3014,7 @@
         <v>17</v>
       </c>
       <c r="S22">
-        <v>2.3788364955325298</v>
+        <v>2.37712053571112</v>
       </c>
       <c r="T22" t="s">
         <v>18</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="W22">
         <f t="shared" si="1"/>
-        <v>0.23408203124659988</v>
+        <v>0.23666294642511998</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
@@ -3066,7 +3066,7 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -3084,7 +3084,7 @@
         <v>15</v>
       </c>
       <c r="H24">
-        <v>2.5599888392858199E-2</v>
+        <v>2.5585937500001099E-2</v>
       </c>
       <c r="I24" t="s">
         <v>16</v>
@@ -3100,7 +3100,7 @@
         <v>12</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N24" t="s">
         <v>13</v>
@@ -3118,7 +3118,7 @@
         <v>17</v>
       </c>
       <c r="S24">
-        <v>0.26047712053567101</v>
+        <v>0.25980747767852702</v>
       </c>
       <c r="T24" t="s">
         <v>18</v>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="W24">
         <f t="shared" si="1"/>
-        <v>0.23487723214281281</v>
+        <v>0.23422154017852592</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
@@ -3136,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -3154,7 +3154,7 @@
         <v>15</v>
       </c>
       <c r="H25">
-        <v>0.26049107142852801</v>
+        <v>0.25982142857138402</v>
       </c>
       <c r="I25" t="s">
         <v>16</v>
@@ -3170,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="M25">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="N25" t="s">
         <v>13</v>
@@ -3188,7 +3188,7 @@
         <v>17</v>
       </c>
       <c r="S25">
-        <v>0.49401506696456099</v>
+        <v>0.49429408482170401</v>
       </c>
       <c r="T25" t="s">
         <v>18</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="W25">
         <f t="shared" si="1"/>
-        <v>0.23352399553603298</v>
+        <v>0.23447265625031999</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
@@ -3206,7 +3206,7 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -3224,7 +3224,7 @@
         <v>15</v>
       </c>
       <c r="H26">
-        <v>0.49402901785741798</v>
+        <v>0.494308035714561</v>
       </c>
       <c r="I26" t="s">
         <v>16</v>
@@ -3240,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="N26" t="s">
         <v>13</v>
@@ -3258,7 +3258,7 @@
         <v>17</v>
       </c>
       <c r="S26">
-        <v>0.72788783482202302</v>
+        <v>0.72844587053630905</v>
       </c>
       <c r="T26" t="s">
         <v>18</v>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W26">
         <f t="shared" si="1"/>
-        <v>0.23385881696460503</v>
+        <v>0.23413783482174805</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
@@ -3276,7 +3276,7 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -3294,7 +3294,7 @@
         <v>15</v>
       </c>
       <c r="H27">
-        <v>0.72790178571487996</v>
+        <v>0.72845982142916599</v>
       </c>
       <c r="I27" t="s">
         <v>16</v>
@@ -3310,7 +3310,7 @@
         <v>12</v>
       </c>
       <c r="M27">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="N27" t="s">
         <v>13</v>
@@ -3328,7 +3328,7 @@
         <v>17</v>
       </c>
       <c r="S27">
-        <v>0.96237444196519994</v>
+        <v>0.962541852679486</v>
       </c>
       <c r="T27" t="s">
         <v>18</v>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="W27">
         <f t="shared" si="1"/>
-        <v>0.23447265625031999</v>
+        <v>0.23408203125032001</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
@@ -3346,7 +3346,7 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -3364,7 +3364,7 @@
         <v>15</v>
       </c>
       <c r="H28">
-        <v>0.962388392858057</v>
+        <v>0.96255580357234305</v>
       </c>
       <c r="I28" t="s">
         <v>16</v>
@@ -3380,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="N28" t="s">
         <v>13</v>
@@ -3398,7 +3398,7 @@
         <v>17</v>
       </c>
       <c r="S28">
-        <v>1.1977539062512299</v>
+        <v>1.19870256696552</v>
       </c>
       <c r="T28" t="s">
         <v>18</v>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="W28">
         <f t="shared" si="1"/>
-        <v>0.23536551339317291</v>
+        <v>0.23614676339317697</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -3416,7 +3416,7 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -3434,7 +3434,7 @@
         <v>15</v>
       </c>
       <c r="H29">
-        <v>1.19776785714409</v>
+        <v>1.1987165178583701</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
@@ -3450,7 +3450,7 @@
         <v>12</v>
       </c>
       <c r="M29">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="N29" t="s">
         <v>13</v>
@@ -3468,7 +3468,7 @@
         <v>17</v>
       </c>
       <c r="S29">
-        <v>1.4330636160729799</v>
+        <v>1.4341936383944101</v>
       </c>
       <c r="T29" t="s">
         <v>18</v>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="W29">
         <f t="shared" si="1"/>
-        <v>0.23529575892888999</v>
+        <v>0.23547712053603997</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -3486,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -3504,7 +3504,7 @@
         <v>15</v>
       </c>
       <c r="H30">
-        <v>1.43307756696584</v>
+        <v>1.4342075892872701</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
@@ -3520,7 +3520,7 @@
         <v>12</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N30" t="s">
         <v>13</v>
@@ -3538,7 +3538,7 @@
         <v>17</v>
       </c>
       <c r="S30">
-        <v>1.6701171875018801</v>
+        <v>1.6695731026804499</v>
       </c>
       <c r="T30" t="s">
         <v>18</v>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="W30">
         <f t="shared" si="1"/>
-        <v>0.23703962053604011</v>
+        <v>0.23536551339317979</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
@@ -3556,7 +3556,7 @@
         <v>12</v>
       </c>
       <c r="B31">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -3574,7 +3574,7 @@
         <v>15</v>
       </c>
       <c r="H31">
-        <v>1.6701311383947299</v>
+        <v>1.6695870535733</v>
       </c>
       <c r="I31" t="s">
         <v>16</v>
@@ -3590,7 +3590,7 @@
         <v>12</v>
       </c>
       <c r="M31">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N31" t="s">
         <v>13</v>
@@ -3608,7 +3608,7 @@
         <v>17</v>
       </c>
       <c r="S31">
-        <v>1.9068359375021999</v>
+        <v>1.9066266741093401</v>
       </c>
       <c r="T31" t="s">
         <v>18</v>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="W31">
         <f t="shared" si="1"/>
-        <v>0.23670479910747</v>
+        <v>0.23703962053604011</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
@@ -3626,7 +3626,7 @@
         <v>12</v>
       </c>
       <c r="B32">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -3644,7 +3644,7 @@
         <v>15</v>
       </c>
       <c r="H32">
-        <v>1.90684988839506</v>
+        <v>1.9066406250022001</v>
       </c>
       <c r="I32" t="s">
         <v>16</v>
@@ -3660,7 +3660,7 @@
         <v>12</v>
       </c>
       <c r="M32">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N32" t="s">
         <v>13</v>
@@ -3678,7 +3678,7 @@
         <v>17</v>
       </c>
       <c r="S32">
-        <v>2.1427734375002498</v>
+        <v>2.1431222098216698</v>
       </c>
       <c r="T32" t="s">
         <v>18</v>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="W32">
         <f t="shared" si="1"/>
-        <v>0.23592354910518987</v>
+        <v>0.23648158481946968</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
@@ -3696,7 +3696,7 @@
         <v>12</v>
       </c>
       <c r="B33">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -3714,7 +3714,7 @@
         <v>15</v>
       </c>
       <c r="H33">
-        <v>2.1427873883931001</v>
+        <v>2.1431361607145298</v>
       </c>
       <c r="I33" t="s">
         <v>16</v>
@@ -3730,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="M33">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N33" t="s">
         <v>13</v>
@@ -3748,7 +3748,7 @@
         <v>17</v>
       </c>
       <c r="S33">
-        <v>2.3775669642825501</v>
+        <v>2.3785435267825301</v>
       </c>
       <c r="T33" t="s">
         <v>18</v>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="W33">
         <f t="shared" si="1"/>
-        <v>0.23477957588944998</v>
+        <v>0.23540736606800028</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
@@ -3800,7 +3800,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -3834,7 +3834,7 @@
         <v>12</v>
       </c>
       <c r="M35">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="N35" t="s">
         <v>13</v>
@@ -3852,7 +3852,7 @@
         <v>17</v>
       </c>
       <c r="S35">
-        <v>0.25958426339281299</v>
+        <v>0.26170479910710098</v>
       </c>
       <c r="T35" t="s">
         <v>18</v>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="W35">
         <f t="shared" si="1"/>
-        <v>0.23399832589281189</v>
+        <v>0.23611886160709988</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
@@ -3870,7 +3870,7 @@
         <v>12</v>
       </c>
       <c r="B36">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -3888,7 +3888,7 @@
         <v>15</v>
       </c>
       <c r="H36">
-        <v>0.25959821428566998</v>
+        <v>0.26171874999995798</v>
       </c>
       <c r="I36" t="s">
         <v>16</v>
@@ -3904,7 +3904,7 @@
         <v>12</v>
       </c>
       <c r="M36">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
         <v>13</v>
@@ -3922,7 +3922,7 @@
         <v>17</v>
       </c>
       <c r="S36">
-        <v>0.49345703125027401</v>
+        <v>0.49792131696456599</v>
       </c>
       <c r="T36" t="s">
         <v>18</v>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="W36">
         <f t="shared" si="1"/>
-        <v>0.23385881696460403</v>
+        <v>0.23620256696460801</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -3940,7 +3940,7 @@
         <v>12</v>
       </c>
       <c r="B37">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -3958,7 +3958,7 @@
         <v>15</v>
       </c>
       <c r="H37">
-        <v>0.49347098214313201</v>
+        <v>0.49793526785742298</v>
       </c>
       <c r="I37" t="s">
         <v>16</v>
@@ -3974,7 +3974,7 @@
         <v>12</v>
       </c>
       <c r="M37">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N37" t="s">
         <v>13</v>
@@ -3992,7 +3992,7 @@
         <v>17</v>
       </c>
       <c r="S37">
-        <v>0.72755301339345102</v>
+        <v>0.73212890625060001</v>
       </c>
       <c r="T37" t="s">
         <v>18</v>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="W37">
         <f t="shared" si="1"/>
-        <v>0.23408203125031901</v>
+        <v>0.23419363839317703</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
@@ -4010,7 +4010,7 @@
         <v>12</v>
       </c>
       <c r="B38">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -4028,7 +4028,7 @@
         <v>15</v>
       </c>
       <c r="H38">
-        <v>0.72756696428630796</v>
+        <v>0.73214285714345695</v>
       </c>
       <c r="I38" t="s">
         <v>16</v>
@@ -4044,7 +4044,7 @@
         <v>12</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N38" t="s">
         <v>13</v>
@@ -4062,7 +4062,7 @@
         <v>17</v>
       </c>
       <c r="S38">
-        <v>0.96443917410806002</v>
+        <v>0.96706194196520601</v>
       </c>
       <c r="T38" t="s">
         <v>18</v>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="W38">
         <f t="shared" si="1"/>
-        <v>0.23687220982175206</v>
+        <v>0.23491908482174906</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
@@ -4080,7 +4080,7 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -4098,7 +4098,7 @@
         <v>15</v>
       </c>
       <c r="H39">
-        <v>0.96445312500091696</v>
+        <v>0.96707589285806295</v>
       </c>
       <c r="I39" t="s">
         <v>16</v>
@@ -4114,7 +4114,7 @@
         <v>12</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
         <v>13</v>
@@ -4132,7 +4132,7 @@
         <v>17</v>
       </c>
       <c r="S39">
-        <v>1.2001953125012299</v>
+        <v>1.2008789062512399</v>
       </c>
       <c r="T39" t="s">
         <v>18</v>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="W39">
         <f t="shared" si="1"/>
-        <v>0.23574218750031295</v>
+        <v>0.23380301339317699</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
@@ -4150,7 +4150,7 @@
         <v>12</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -4168,7 +4168,7 @@
         <v>15</v>
       </c>
       <c r="H40">
-        <v>1.20020926339409</v>
+        <v>1.20089285714409</v>
       </c>
       <c r="I40" t="s">
         <v>16</v>
@@ -4184,7 +4184,7 @@
         <v>12</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="N40" t="s">
         <v>13</v>
@@ -4202,7 +4202,7 @@
         <v>17</v>
       </c>
       <c r="S40">
-        <v>1.4355050223229799</v>
+        <v>1.4345842633944099</v>
       </c>
       <c r="T40" t="s">
         <v>18</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="W40">
         <f t="shared" si="1"/>
-        <v>0.23529575892888999</v>
+        <v>0.23369140625031992</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
@@ -4220,7 +4220,7 @@
         <v>12</v>
       </c>
       <c r="B41">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -4238,7 +4238,7 @@
         <v>15</v>
       </c>
       <c r="H41">
-        <v>1.43551897321584</v>
+        <v>1.43459821428727</v>
       </c>
       <c r="I41" t="s">
         <v>16</v>
@@ -4254,7 +4254,7 @@
         <v>12</v>
       </c>
       <c r="M41">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="N41" t="s">
         <v>13</v>
@@ -4272,7 +4272,7 @@
         <v>17</v>
       </c>
       <c r="S41">
-        <v>1.6720005580375901</v>
+        <v>1.6701869419661599</v>
       </c>
       <c r="T41" t="s">
         <v>18</v>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="W41">
         <f t="shared" si="1"/>
-        <v>0.23648158482175008</v>
+        <v>0.23558872767888994</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -4290,7 +4290,7 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -4308,7 +4308,7 @@
         <v>15</v>
       </c>
       <c r="H42">
-        <v>1.6720145089304499</v>
+        <v>1.67020089285902</v>
       </c>
       <c r="I42" t="s">
         <v>16</v>
@@ -4324,7 +4324,7 @@
         <v>12</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N42" t="s">
         <v>13</v>
@@ -4342,7 +4342,7 @@
         <v>17</v>
       </c>
       <c r="S42">
-        <v>1.9077566964307699</v>
+        <v>1.9040039062521901</v>
       </c>
       <c r="T42" t="s">
         <v>18</v>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="W42">
         <f t="shared" si="1"/>
-        <v>0.23574218750032006</v>
+        <v>0.23380301339317011</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -4360,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="B43">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -4378,7 +4378,7 @@
         <v>15</v>
       </c>
       <c r="H43">
-        <v>1.90777064732363</v>
+        <v>1.9040178571450499</v>
       </c>
       <c r="I43" t="s">
         <v>16</v>
@@ -4394,7 +4394,7 @@
         <v>12</v>
       </c>
       <c r="M43">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N43" t="s">
         <v>13</v>
@@ -4412,7 +4412,7 @@
         <v>17</v>
       </c>
       <c r="S43">
-        <v>2.1416015625002598</v>
+        <v>2.1387974330360202</v>
       </c>
       <c r="T43" t="s">
         <v>18</v>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="W43">
         <f t="shared" si="1"/>
-        <v>0.23383091517662979</v>
+        <v>0.23477957589097032</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
@@ -4430,7 +4430,7 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -4448,7 +4448,7 @@
         <v>15</v>
       </c>
       <c r="H44">
-        <v>2.1416155133931198</v>
+        <v>2.1388113839288798</v>
       </c>
       <c r="I44" t="s">
         <v>16</v>
@@ -4464,7 +4464,7 @@
         <v>12</v>
       </c>
       <c r="M44">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="N44" t="s">
         <v>13</v>
@@ -4482,7 +4482,7 @@
         <v>17</v>
       </c>
       <c r="S44">
-        <v>2.3799107142825102</v>
+        <v>2.3731445312469002</v>
       </c>
       <c r="T44" t="s">
         <v>18</v>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="W44">
         <f t="shared" si="1"/>
-        <v>0.23829520088939038</v>
+        <v>0.23433314731802035</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -4568,7 +4568,7 @@
         <v>12</v>
       </c>
       <c r="M46">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
         <v>13</v>
@@ -4586,7 +4586,7 @@
         <v>17</v>
       </c>
       <c r="S46">
-        <v>2.16796875000006E-2</v>
+        <v>8.2310267857142599E-3</v>
       </c>
       <c r="T46" t="s">
         <v>18</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="W46">
         <f t="shared" si="1"/>
-        <v>2.1554129464286316E-2</v>
+        <v>8.1054687499999747E-3</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
@@ -4604,7 +4604,7 @@
         <v>12</v>
       </c>
       <c r="B47">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -4622,7 +4622,7 @@
         <v>15</v>
       </c>
       <c r="H47">
-        <v>3.0064174107144501E-2</v>
+        <v>3.0217633928573101E-2</v>
       </c>
       <c r="I47" t="s">
         <v>16</v>
@@ -4638,7 +4638,7 @@
         <v>12</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="N47" t="s">
         <v>13</v>
@@ -4656,7 +4656,7 @@
         <v>17</v>
       </c>
       <c r="S47">
-        <v>0.26416015624996197</v>
+        <v>0.26655970982139299</v>
       </c>
       <c r="T47" t="s">
         <v>18</v>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="W47">
         <f t="shared" si="1"/>
-        <v>0.23409598214281746</v>
+        <v>0.23634207589281989</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
@@ -4674,7 +4674,7 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -4692,7 +4692,7 @@
         <v>15</v>
       </c>
       <c r="H48">
-        <v>0.26417410714281903</v>
+        <v>0.26657366071425098</v>
       </c>
       <c r="I48" t="s">
         <v>16</v>
@@ -4708,7 +4708,7 @@
         <v>12</v>
       </c>
       <c r="M48">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="N48" t="s">
         <v>13</v>
@@ -4726,7 +4726,7 @@
         <v>17</v>
       </c>
       <c r="S48">
-        <v>0.50005580357171198</v>
+        <v>0.49981863839314</v>
       </c>
       <c r="T48" t="s">
         <v>18</v>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="W48">
         <f t="shared" si="1"/>
-        <v>0.23588169642889295</v>
+        <v>0.23324497767888902</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
@@ -4744,7 +4744,7 @@
         <v>12</v>
       </c>
       <c r="B49">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -4762,7 +4762,7 @@
         <v>15</v>
       </c>
       <c r="H49">
-        <v>0.50006975446456903</v>
+        <v>0.499832589285997</v>
       </c>
       <c r="I49" t="s">
         <v>16</v>
@@ -4778,7 +4778,7 @@
         <v>12</v>
       </c>
       <c r="M49">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="N49" t="s">
         <v>13</v>
@@ -4796,7 +4796,7 @@
         <v>17</v>
       </c>
       <c r="S49">
-        <v>0.73515625000060403</v>
+        <v>0.73374720982203101</v>
       </c>
       <c r="T49" t="s">
         <v>18</v>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="W49">
         <f t="shared" si="1"/>
-        <v>0.235086495536035</v>
+        <v>0.23391462053603401</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
@@ -4814,7 +4814,7 @@
         <v>12</v>
       </c>
       <c r="B50">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -4832,7 +4832,7 @@
         <v>15</v>
       </c>
       <c r="H50">
-        <v>0.73517020089346097</v>
+        <v>0.73376116071488795</v>
       </c>
       <c r="I50" t="s">
         <v>16</v>
@@ -4848,7 +4848,7 @@
         <v>12</v>
       </c>
       <c r="M50">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N50" t="s">
         <v>13</v>
@@ -4866,7 +4866,7 @@
         <v>17</v>
       </c>
       <c r="S50">
-        <v>0.970479910715211</v>
+        <v>0.96750837053663497</v>
       </c>
       <c r="T50" t="s">
         <v>18</v>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="W50">
         <f t="shared" si="1"/>
-        <v>0.23530970982175003</v>
+        <v>0.23374720982174702</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
@@ -4884,7 +4884,7 @@
         <v>12</v>
       </c>
       <c r="B51">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -4902,7 +4902,7 @@
         <v>15</v>
       </c>
       <c r="H51">
-        <v>0.97049386160806805</v>
+        <v>0.96752232142949302</v>
       </c>
       <c r="I51" t="s">
         <v>16</v>
@@ -4918,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="M51">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="N51" t="s">
         <v>13</v>
@@ -4936,7 +4936,7 @@
         <v>17</v>
       </c>
       <c r="S51">
-        <v>1.2067522321441</v>
+        <v>1.2027064732155199</v>
       </c>
       <c r="T51" t="s">
         <v>18</v>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="W51">
         <f t="shared" si="1"/>
-        <v>0.23625837053603194</v>
+        <v>0.23518415178602692</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
@@ -4954,7 +4954,7 @@
         <v>12</v>
       </c>
       <c r="B52">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -4972,7 +4972,7 @@
         <v>15</v>
       </c>
       <c r="H52">
-        <v>1.20676618303696</v>
+        <v>1.20272042410838</v>
       </c>
       <c r="I52" t="s">
         <v>16</v>
@@ -4988,7 +4988,7 @@
         <v>12</v>
       </c>
       <c r="M52">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
         <v>13</v>
@@ -5006,7 +5006,7 @@
         <v>17</v>
       </c>
       <c r="S52">
-        <v>1.44112723214442</v>
+        <v>1.4384207589301301</v>
       </c>
       <c r="T52" t="s">
         <v>18</v>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="W52">
         <f t="shared" si="1"/>
-        <v>0.23436104910745992</v>
+        <v>0.23570033482175012</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
@@ -5024,7 +5024,7 @@
         <v>12</v>
       </c>
       <c r="B53">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -5042,7 +5042,7 @@
         <v>15</v>
       </c>
       <c r="H53">
-        <v>1.44114118303728</v>
+        <v>1.4384347098229899</v>
       </c>
       <c r="I53" t="s">
         <v>16</v>
@@ -5058,7 +5058,7 @@
         <v>12</v>
       </c>
       <c r="M53">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="N53" t="s">
         <v>13</v>
@@ -5076,7 +5076,7 @@
         <v>17</v>
       </c>
       <c r="S53">
-        <v>1.67520926339474</v>
+        <v>1.67294921875188</v>
       </c>
       <c r="T53" t="s">
         <v>18</v>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="W53">
         <f t="shared" si="1"/>
-        <v>0.23406808035745996</v>
+        <v>0.23451450892889003</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
@@ -5094,7 +5094,7 @@
         <v>12</v>
       </c>
       <c r="B54">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -5112,7 +5112,7 @@
         <v>15</v>
       </c>
       <c r="H54">
-        <v>1.6752232142876</v>
+        <v>1.67296316964474</v>
       </c>
       <c r="I54" t="s">
         <v>16</v>
@@ -5128,7 +5128,7 @@
         <v>12</v>
       </c>
       <c r="M54">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="N54" t="s">
         <v>13</v>
@@ -5146,7 +5146,7 @@
         <v>17</v>
       </c>
       <c r="S54">
-        <v>1.91136997768078</v>
+        <v>1.9098911830379199</v>
       </c>
       <c r="T54" t="s">
         <v>18</v>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="W54">
         <f t="shared" si="1"/>
-        <v>0.23614676339317997</v>
+        <v>0.23692801339317993</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
@@ -5164,7 +5164,7 @@
         <v>12</v>
       </c>
       <c r="B55">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -5182,7 +5182,7 @@
         <v>15</v>
       </c>
       <c r="H55">
-        <v>1.91138392857363</v>
+        <v>1.90990513393077</v>
       </c>
       <c r="I55" t="s">
         <v>16</v>
@@ -5198,7 +5198,7 @@
         <v>12</v>
       </c>
       <c r="M55">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="N55" t="s">
         <v>13</v>
@@ -5216,7 +5216,7 @@
         <v>17</v>
       </c>
       <c r="S55">
-        <v>2.14730747767875</v>
+        <v>2.1450195312502198</v>
       </c>
       <c r="T55" t="s">
         <v>18</v>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="W55">
         <f t="shared" si="1"/>
-        <v>0.23592354910511992</v>
+        <v>0.23511439731944983</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
@@ -5268,7 +5268,7 @@
         <v>12</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -5286,7 +5286,7 @@
         <v>15</v>
       </c>
       <c r="H57">
-        <v>2.5599888392858199E-2</v>
+        <v>2.5641741071429702E-2</v>
       </c>
       <c r="I57" t="s">
         <v>16</v>
@@ -5302,7 +5302,7 @@
         <v>12</v>
       </c>
       <c r="M57">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="N57" t="s">
         <v>13</v>
@@ -5320,7 +5320,7 @@
         <v>17</v>
       </c>
       <c r="S57">
-        <v>0.26047712053567101</v>
+        <v>0.261983816964244</v>
       </c>
       <c r="T57" t="s">
         <v>18</v>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="W57">
         <f t="shared" si="1"/>
-        <v>0.23487723214281281</v>
+        <v>0.23634207589281431</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
@@ -5338,7 +5338,7 @@
         <v>12</v>
       </c>
       <c r="B58">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -5356,7 +5356,7 @@
         <v>15</v>
       </c>
       <c r="H58">
-        <v>0.26049107142852801</v>
+        <v>0.26199776785710199</v>
       </c>
       <c r="I58" t="s">
         <v>16</v>
@@ -5372,7 +5372,7 @@
         <v>12</v>
       </c>
       <c r="M58">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="N58" t="s">
         <v>13</v>
@@ -5390,7 +5390,7 @@
         <v>17</v>
       </c>
       <c r="S58">
-        <v>0.49524274553599101</v>
+        <v>0.49764229910742303</v>
       </c>
       <c r="T58" t="s">
         <v>18</v>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="W58">
         <f t="shared" si="1"/>
-        <v>0.234751674107463</v>
+        <v>0.23564453125032103</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
@@ -5408,7 +5408,7 @@
         <v>12</v>
       </c>
       <c r="B59">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -5426,7 +5426,7 @@
         <v>15</v>
       </c>
       <c r="H59">
-        <v>0.49525669642884801</v>
+        <v>0.49765625000028002</v>
       </c>
       <c r="I59" t="s">
         <v>16</v>
@@ -5442,7 +5442,7 @@
         <v>12</v>
       </c>
       <c r="M59">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N59" t="s">
         <v>13</v>
@@ -5460,7 +5460,7 @@
         <v>17</v>
       </c>
       <c r="S59">
-        <v>0.73095703125059797</v>
+        <v>0.73101283482202695</v>
       </c>
       <c r="T59" t="s">
         <v>18</v>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="W59">
         <f t="shared" si="1"/>
-        <v>0.23570033482174996</v>
+        <v>0.23335658482174693</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
@@ -5478,7 +5478,7 @@
         <v>12</v>
       </c>
       <c r="B60">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -5496,7 +5496,7 @@
         <v>15</v>
       </c>
       <c r="H60">
-        <v>0.73097098214345602</v>
+        <v>0.731026785714884</v>
       </c>
       <c r="I60" t="s">
         <v>16</v>
@@ -5512,7 +5512,7 @@
         <v>12</v>
       </c>
       <c r="M60">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="N60" t="s">
         <v>13</v>
@@ -5530,7 +5530,7 @@
         <v>17</v>
       </c>
       <c r="S60">
-        <v>0.96695033482234904</v>
+        <v>0.96595982142949</v>
       </c>
       <c r="T60" t="s">
         <v>18</v>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="W60">
         <f t="shared" si="1"/>
-        <v>0.23597935267889303</v>
+        <v>0.234933035714606</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
@@ -5548,7 +5548,7 @@
         <v>12</v>
       </c>
       <c r="B61">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -5566,7 +5566,7 @@
         <v>15</v>
       </c>
       <c r="H61">
-        <v>0.96696428571520598</v>
+        <v>0.96597377232234805</v>
       </c>
       <c r="I61" t="s">
         <v>16</v>
@@ -5582,7 +5582,7 @@
         <v>12</v>
       </c>
       <c r="M61">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="N61" t="s">
         <v>13</v>
@@ -5600,7 +5600,7 @@
         <v>17</v>
       </c>
       <c r="S61">
-        <v>1.2009207589298101</v>
+        <v>1.2011579241083801</v>
       </c>
       <c r="T61" t="s">
         <v>18</v>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="W61">
         <f t="shared" si="1"/>
-        <v>0.23395647321460411</v>
+        <v>0.23518415178603203</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
@@ -5618,7 +5618,7 @@
         <v>12</v>
       </c>
       <c r="B62">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -5636,7 +5636,7 @@
         <v>15</v>
       </c>
       <c r="H62">
-        <v>1.2009347098226599</v>
+        <v>1.2011718750012399</v>
       </c>
       <c r="I62" t="s">
         <v>16</v>
@@ -5652,7 +5652,7 @@
         <v>12</v>
       </c>
       <c r="M62">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N62" t="s">
         <v>13</v>
@@ -5670,7 +5670,7 @@
         <v>17</v>
       </c>
       <c r="S62">
-        <v>1.43685825893013</v>
+        <v>1.4377650669658399</v>
       </c>
       <c r="T62" t="s">
         <v>18</v>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="W62">
         <f t="shared" si="1"/>
-        <v>0.23592354910747004</v>
+        <v>0.23659319196460005</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
@@ -5688,7 +5688,7 @@
         <v>12</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -5706,7 +5706,7 @@
         <v>15</v>
       </c>
       <c r="H63">
-        <v>1.43687220982299</v>
+        <v>1.4377790178587</v>
       </c>
       <c r="I63" t="s">
         <v>16</v>
@@ -5722,7 +5722,7 @@
         <v>12</v>
       </c>
       <c r="M63">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="N63" t="s">
         <v>13</v>
@@ -5740,7 +5740,7 @@
         <v>17</v>
       </c>
       <c r="S63">
-        <v>1.67167968750188</v>
+        <v>1.6728097098233099</v>
       </c>
       <c r="T63" t="s">
         <v>18</v>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="W63">
         <f t="shared" si="1"/>
-        <v>0.23480747767888999</v>
+        <v>0.23503069196460991</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
@@ -5758,7 +5758,7 @@
         <v>12</v>
       </c>
       <c r="B64">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -5776,7 +5776,7 @@
         <v>15</v>
       </c>
       <c r="H64">
-        <v>1.6716936383947301</v>
+        <v>1.67282366071616</v>
       </c>
       <c r="I64" t="s">
         <v>16</v>
@@ -5792,7 +5792,7 @@
         <v>12</v>
       </c>
       <c r="M64">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N64" t="s">
         <v>13</v>
@@ -5810,7 +5810,7 @@
         <v>17</v>
       </c>
       <c r="S64">
-        <v>1.9062779017879099</v>
+        <v>1.90807756696649</v>
       </c>
       <c r="T64" t="s">
         <v>18</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="W64">
         <f t="shared" si="1"/>
-        <v>0.23458426339317984</v>
+        <v>0.23525390625033005</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
@@ -5828,7 +5828,7 @@
         <v>12</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -5846,7 +5846,7 @@
         <v>15</v>
       </c>
       <c r="H65">
-        <v>1.9062918526807699</v>
+        <v>1.9080915178593401</v>
       </c>
       <c r="I65" t="s">
         <v>16</v>
@@ -5862,7 +5862,7 @@
         <v>12</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="N65" t="s">
         <v>13</v>
@@ -5880,7 +5880,7 @@
         <v>17</v>
       </c>
       <c r="S65">
-        <v>2.1420898437502598</v>
+        <v>2.1457031250002099</v>
       </c>
       <c r="T65" t="s">
         <v>18</v>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="W65">
         <f t="shared" si="1"/>
-        <v>0.23579799106948984</v>
+        <v>0.23761160714086982</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
@@ -5898,7 +5898,7 @@
         <v>12</v>
       </c>
       <c r="B66">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -5916,7 +5916,7 @@
         <v>15</v>
       </c>
       <c r="H66">
-        <v>2.1421037946431101</v>
+        <v>2.1457170758930602</v>
       </c>
       <c r="I66" t="s">
         <v>16</v>
@@ -5932,7 +5932,7 @@
         <v>12</v>
       </c>
       <c r="M66">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="N66" t="s">
         <v>13</v>
@@ -5950,7 +5950,7 @@
         <v>17</v>
       </c>
       <c r="S66">
-        <v>2.3781947544611102</v>
+        <v>2.3827566964253299</v>
       </c>
       <c r="T66" t="s">
         <v>18</v>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="W66">
         <f t="shared" si="1"/>
-        <v>0.2360909598180001</v>
+        <v>0.23703962053226979</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
@@ -6002,7 +6002,7 @@
         <v>12</v>
       </c>
       <c r="B68">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -6036,7 +6036,7 @@
         <v>12</v>
       </c>
       <c r="M68">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N68" t="s">
         <v>13</v>
@@ -6054,7 +6054,7 @@
         <v>17</v>
       </c>
       <c r="S68">
-        <v>0.26187220982138698</v>
+        <v>0.260198102678528</v>
       </c>
       <c r="T68" t="s">
         <v>18</v>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="W68">
         <f t="shared" si="3"/>
-        <v>0.23627232142852878</v>
+        <v>0.23459821428566979</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
@@ -6072,7 +6072,7 @@
         <v>12</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -6090,7 +6090,7 @@
         <v>15</v>
       </c>
       <c r="H69">
-        <v>0.26188616071424398</v>
+        <v>0.26021205357138499</v>
       </c>
       <c r="I69" t="s">
         <v>16</v>
@@ -6106,7 +6106,7 @@
         <v>12</v>
       </c>
       <c r="M69">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="N69" t="s">
         <v>13</v>
@@ -6124,7 +6124,7 @@
         <v>17</v>
       </c>
       <c r="S69">
-        <v>0.49686104910742201</v>
+        <v>0.49429408482170401</v>
       </c>
       <c r="T69" t="s">
         <v>18</v>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="W69">
         <f t="shared" si="3"/>
-        <v>0.23497488839317804</v>
+        <v>0.23408203125031901</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
@@ -6142,7 +6142,7 @@
         <v>12</v>
       </c>
       <c r="B70">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -6160,7 +6160,7 @@
         <v>15</v>
       </c>
       <c r="H70">
-        <v>0.49687500000027901</v>
+        <v>0.494308035714561</v>
       </c>
       <c r="I70" t="s">
         <v>16</v>
@@ -6176,7 +6176,7 @@
         <v>12</v>
       </c>
       <c r="M70">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N70" t="s">
         <v>13</v>
@@ -6194,7 +6194,7 @@
         <v>17</v>
       </c>
       <c r="S70">
-        <v>0.73190569196488497</v>
+        <v>0.73101283482202695</v>
       </c>
       <c r="T70" t="s">
         <v>18</v>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="W70">
         <f t="shared" si="3"/>
-        <v>0.23503069196460596</v>
+        <v>0.23670479910746595</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
@@ -6212,7 +6212,7 @@
         <v>12</v>
       </c>
       <c r="B71">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -6230,7 +6230,7 @@
         <v>15</v>
       </c>
       <c r="H71">
-        <v>0.73191964285774302</v>
+        <v>0.731026785714884</v>
       </c>
       <c r="I71" t="s">
         <v>16</v>
@@ -6246,7 +6246,7 @@
         <v>12</v>
       </c>
       <c r="M71">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N71" t="s">
         <v>13</v>
@@ -6264,7 +6264,7 @@
         <v>17</v>
       </c>
       <c r="S71">
-        <v>0.96695033482234904</v>
+        <v>0.96572265625091902</v>
       </c>
       <c r="T71" t="s">
         <v>18</v>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="W71">
         <f t="shared" si="3"/>
-        <v>0.23503069196460602</v>
+        <v>0.23469587053603502</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
@@ -6282,7 +6282,7 @@
         <v>12</v>
       </c>
       <c r="B72">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -6300,7 +6300,7 @@
         <v>15</v>
       </c>
       <c r="H72">
-        <v>0.96696428571520598</v>
+        <v>0.96573660714377596</v>
       </c>
       <c r="I72" t="s">
         <v>16</v>
@@ -6316,7 +6316,7 @@
         <v>12</v>
       </c>
       <c r="M72">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N72" t="s">
         <v>13</v>
@@ -6334,7 +6334,7 @@
         <v>17</v>
       </c>
       <c r="S72">
-        <v>1.2033342633941</v>
+        <v>1.2017020089298101</v>
       </c>
       <c r="T72" t="s">
         <v>18</v>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="W72">
         <f t="shared" si="3"/>
-        <v>0.23636997767889401</v>
+        <v>0.23596540178603409</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
@@ -6352,7 +6352,7 @@
         <v>12</v>
       </c>
       <c r="B73">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -6370,7 +6370,7 @@
         <v>15</v>
       </c>
       <c r="H73">
-        <v>1.20334821428695</v>
+        <v>1.2017159598226601</v>
       </c>
       <c r="I73" t="s">
         <v>16</v>
@@ -6386,7 +6386,7 @@
         <v>12</v>
       </c>
       <c r="M73">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N73" t="s">
         <v>13</v>
@@ -6404,7 +6404,7 @@
         <v>17</v>
       </c>
       <c r="S73">
-        <v>1.4437360491087099</v>
+        <v>1.44132254464442</v>
       </c>
       <c r="T73" t="s">
         <v>18</v>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="W73">
         <f t="shared" si="3"/>
-        <v>0.24038783482175985</v>
+        <v>0.23960658482175989</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
@@ -6422,7 +6422,7 @@
         <v>12</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -6440,7 +6440,7 @@
         <v>15</v>
       </c>
       <c r="H74">
-        <v>1.4437500000015699</v>
+        <v>1.44133649553728</v>
       </c>
       <c r="I74" t="s">
         <v>16</v>
@@ -6456,7 +6456,7 @@
         <v>12</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="N74" t="s">
         <v>13</v>
@@ -6474,7 +6474,7 @@
         <v>17</v>
       </c>
       <c r="S74">
-        <v>1.67949218750189</v>
+        <v>1.6762974330375999</v>
       </c>
       <c r="T74" t="s">
         <v>18</v>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="W74">
         <f t="shared" si="3"/>
-        <v>0.23574218750032006</v>
+        <v>0.23496093750031988</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
@@ -6492,7 +6492,7 @@
         <v>12</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -6510,7 +6510,7 @@
         <v>15</v>
       </c>
       <c r="H75">
-        <v>1.67950613839475</v>
+        <v>1.67631138393046</v>
       </c>
       <c r="I75" t="s">
         <v>16</v>
@@ -6526,7 +6526,7 @@
         <v>12</v>
       </c>
       <c r="M75">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N75" t="s">
         <v>13</v>
@@ -6544,7 +6544,7 @@
         <v>17</v>
       </c>
       <c r="S75">
-        <v>1.9153599330379201</v>
+        <v>1.9136160714307799</v>
       </c>
       <c r="T75" t="s">
         <v>18</v>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="W75">
         <f t="shared" si="3"/>
-        <v>0.23585379464317002</v>
+        <v>0.23730468750031997</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
@@ -6562,7 +6562,7 @@
         <v>12</v>
       </c>
       <c r="B76">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -6580,7 +6580,7 @@
         <v>15</v>
       </c>
       <c r="H76">
-        <v>1.9153738839307799</v>
+        <v>1.91363002232364</v>
       </c>
       <c r="I76" t="s">
         <v>16</v>
@@ -6596,7 +6596,7 @@
         <v>12</v>
       </c>
       <c r="M76">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="N76" t="s">
         <v>13</v>
@@ -6614,7 +6614,7 @@
         <v>17</v>
       </c>
       <c r="S76">
-        <v>2.1506975446429899</v>
+        <v>2.1493861607144402</v>
       </c>
       <c r="T76" t="s">
         <v>18</v>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="W76">
         <f t="shared" si="3"/>
-        <v>0.23532366071221</v>
+        <v>0.23575613839080023</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
@@ -6632,7 +6632,7 @@
         <v>12</v>
       </c>
       <c r="B77">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -6650,7 +6650,7 @@
         <v>15</v>
       </c>
       <c r="H77">
-        <v>2.1507114955358499</v>
+        <v>2.1494001116072901</v>
       </c>
       <c r="I77" t="s">
         <v>16</v>
@@ -6666,7 +6666,7 @@
         <v>12</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N77" t="s">
         <v>13</v>
@@ -6684,7 +6684,7 @@
         <v>17</v>
       </c>
       <c r="S77">
-        <v>2.3871233258895499</v>
+        <v>2.3886300223180998</v>
       </c>
       <c r="T77" t="s">
         <v>18</v>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="W77">
         <f t="shared" si="3"/>
-        <v>0.23641183035369995</v>
+        <v>0.23922991071080979</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
@@ -6736,7 +6736,7 @@
         <v>12</v>
       </c>
       <c r="B79">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -6754,7 +6754,7 @@
         <v>15</v>
       </c>
       <c r="H79">
-        <v>2.5627790178572502E-2</v>
+        <v>2.5585937500001099E-2</v>
       </c>
       <c r="I79" t="s">
         <v>16</v>
@@ -6770,7 +6770,7 @@
         <v>12</v>
       </c>
       <c r="M79">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="N79" t="s">
         <v>13</v>
@@ -6788,7 +6788,7 @@
         <v>17</v>
       </c>
       <c r="S79">
-        <v>0.261314174107101</v>
+        <v>0.26265345982138799</v>
       </c>
       <c r="T79" t="s">
         <v>18</v>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="W79">
         <f t="shared" si="3"/>
-        <v>0.2356863839285285</v>
+        <v>0.23706752232138689</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
@@ -6806,7 +6806,7 @@
         <v>12</v>
       </c>
       <c r="B80">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -6824,7 +6824,7 @@
         <v>15</v>
       </c>
       <c r="H80">
-        <v>0.261328124999958</v>
+        <v>0.26266741071424499</v>
       </c>
       <c r="I80" t="s">
         <v>16</v>
@@ -6840,7 +6840,7 @@
         <v>12</v>
       </c>
       <c r="M80">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="N80" t="s">
         <v>13</v>
@@ -6858,7 +6858,7 @@
         <v>17</v>
       </c>
       <c r="S80">
-        <v>0.49563337053599199</v>
+        <v>0.49797712053599502</v>
       </c>
       <c r="T80" t="s">
         <v>18</v>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="W80">
         <f t="shared" si="3"/>
-        <v>0.23430524553603399</v>
+        <v>0.23530970982175003</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
@@ -6876,7 +6876,7 @@
         <v>12</v>
       </c>
       <c r="B81">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -6894,7 +6894,7 @@
         <v>15</v>
       </c>
       <c r="H81">
-        <v>0.49564732142884899</v>
+        <v>0.49799107142885202</v>
       </c>
       <c r="I81" t="s">
         <v>16</v>
@@ -6910,7 +6910,7 @@
         <v>12</v>
       </c>
       <c r="M81">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="N81" t="s">
         <v>13</v>
@@ -6928,7 +6928,7 @@
         <v>17</v>
       </c>
       <c r="S81">
-        <v>0.73558872767917605</v>
+        <v>0.73404017857203097</v>
       </c>
       <c r="T81" t="s">
         <v>18</v>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="W81">
         <f t="shared" si="3"/>
-        <v>0.23994140625032706</v>
+        <v>0.23604910714317895</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
@@ -6946,7 +6946,7 @@
         <v>12</v>
       </c>
       <c r="B82">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -6964,7 +6964,7 @@
         <v>15</v>
       </c>
       <c r="H82">
-        <v>0.73560267857203299</v>
+        <v>0.73405412946488802</v>
       </c>
       <c r="I82" t="s">
         <v>16</v>
@@ -6980,7 +6980,7 @@
         <v>12</v>
       </c>
       <c r="M82">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="N82" t="s">
         <v>13</v>
@@ -6998,7 +6998,7 @@
         <v>17</v>
       </c>
       <c r="S82">
-        <v>0.97236328125092797</v>
+        <v>0.96997767857235295</v>
       </c>
       <c r="T82" t="s">
         <v>18</v>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="W82">
         <f t="shared" si="3"/>
-        <v>0.23676060267889498</v>
+        <v>0.23592354910746494</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
@@ -7016,7 +7016,7 @@
         <v>12</v>
       </c>
       <c r="B83">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -7034,7 +7034,7 @@
         <v>15</v>
       </c>
       <c r="H83">
-        <v>0.97237723214378502</v>
+        <v>0.96999162946521</v>
       </c>
       <c r="I83" t="s">
         <v>16</v>
@@ -7050,7 +7050,7 @@
         <v>12</v>
       </c>
       <c r="M83">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="N83" t="s">
         <v>13</v>
@@ -7068,7 +7068,7 @@
         <v>17</v>
       </c>
       <c r="S83">
-        <v>1.20778459821553</v>
+        <v>1.20729631696553</v>
       </c>
       <c r="T83" t="s">
         <v>18</v>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="W83">
         <f t="shared" si="3"/>
-        <v>0.23540736607174495</v>
+        <v>0.23730468750031997</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
@@ -7086,7 +7086,7 @@
         <v>12</v>
       </c>
       <c r="B84">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -7104,7 +7104,7 @@
         <v>15</v>
       </c>
       <c r="H84">
-        <v>1.20779854910839</v>
+        <v>1.20731026785839</v>
       </c>
       <c r="I84" t="s">
         <v>16</v>
@@ -7120,7 +7120,7 @@
         <v>12</v>
       </c>
       <c r="M84">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="N84" t="s">
         <v>13</v>
@@ -7138,7 +7138,7 @@
         <v>17</v>
       </c>
       <c r="S84">
-        <v>1.44383370535871</v>
+        <v>1.44528459821585</v>
       </c>
       <c r="T84" t="s">
         <v>18</v>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="W84">
         <f t="shared" si="3"/>
-        <v>0.23603515625032001</v>
+        <v>0.23797433035745996</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
@@ -7156,7 +7156,7 @@
         <v>12</v>
       </c>
       <c r="B85">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -7174,7 +7174,7 @@
         <v>15</v>
       </c>
       <c r="H85">
-        <v>1.4438476562515701</v>
+        <v>1.44529854910871</v>
       </c>
       <c r="I85" t="s">
         <v>16</v>
@@ -7190,7 +7190,7 @@
         <v>12</v>
       </c>
       <c r="M85">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="N85" t="s">
         <v>13</v>
@@ -7208,7 +7208,7 @@
         <v>17</v>
       </c>
       <c r="S85">
-        <v>1.6801060267876</v>
+        <v>1.6811104910733199</v>
       </c>
       <c r="T85" t="s">
         <v>18</v>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="W85">
         <f t="shared" si="3"/>
-        <v>0.23625837053602994</v>
+        <v>0.23581194196460986</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
@@ -7226,7 +7226,7 @@
         <v>12</v>
       </c>
       <c r="B86">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -7244,7 +7244,7 @@
         <v>15</v>
       </c>
       <c r="H86">
-        <v>1.6801199776804601</v>
+        <v>1.6811244419661799</v>
       </c>
       <c r="I86" t="s">
         <v>16</v>
@@ -7260,7 +7260,7 @@
         <v>12</v>
       </c>
       <c r="M86">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N86" t="s">
         <v>13</v>
@@ -7278,7 +7278,7 @@
         <v>17</v>
       </c>
       <c r="S86">
-        <v>1.9157505580379199</v>
+        <v>1.9206194196450701</v>
       </c>
       <c r="T86" t="s">
         <v>18</v>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="W86">
         <f t="shared" si="3"/>
-        <v>0.23563058035745987</v>
+        <v>0.23949497767889016</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
@@ -7296,7 +7296,7 @@
         <v>12</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -7314,7 +7314,7 @@
         <v>15</v>
       </c>
       <c r="H87">
-        <v>1.91576450893078</v>
+        <v>1.9206333705379299</v>
       </c>
       <c r="I87" t="s">
         <v>16</v>
@@ -7330,7 +7330,7 @@
         <v>12</v>
       </c>
       <c r="M87">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N87" t="s">
         <v>13</v>
@@ -7348,7 +7348,7 @@
         <v>17</v>
       </c>
       <c r="S87">
-        <v>2.1526925223215301</v>
+        <v>2.1570033482143298</v>
       </c>
       <c r="T87" t="s">
         <v>18</v>
@@ -7358,7 +7358,7 @@
       </c>
       <c r="W87">
         <f t="shared" si="3"/>
-        <v>0.23692801339075009</v>
+        <v>0.23636997767639989</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
@@ -7366,7 +7366,7 @@
         <v>12</v>
       </c>
       <c r="B88">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -7384,7 +7384,7 @@
         <v>15</v>
       </c>
       <c r="H88">
-        <v>2.1527064732143901</v>
+        <v>2.1570172991071801</v>
       </c>
       <c r="I88" t="s">
         <v>16</v>
@@ -7400,7 +7400,7 @@
         <v>12</v>
       </c>
       <c r="M88">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N88" t="s">
         <v>13</v>
@@ -7418,7 +7418,7 @@
         <v>17</v>
       </c>
       <c r="S88">
-        <v>2.38874162946095</v>
+        <v>2.3943080357108699</v>
       </c>
       <c r="T88" t="s">
         <v>18</v>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="W88">
         <f t="shared" si="3"/>
-        <v>0.23603515624655991</v>
+        <v>0.23729073660368982</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="K89">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L89" t="s">
         <v>10</v>
@@ -7470,7 +7470,7 @@
         <v>12</v>
       </c>
       <c r="B90">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -7498,13 +7498,13 @@
       </c>
       <c r="K90" s="2">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="L90" t="s">
         <v>12</v>
       </c>
       <c r="M90">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="N90" t="s">
         <v>13</v>
@@ -7522,7 +7522,7 @@
         <v>17</v>
       </c>
       <c r="S90">
-        <v>0.26187220982138698</v>
+        <v>0.26231863839281599</v>
       </c>
       <c r="T90" t="s">
         <v>18</v>
@@ -7532,7 +7532,7 @@
       </c>
       <c r="W90">
         <f t="shared" si="3"/>
-        <v>0.23628627232138588</v>
+        <v>0.2367327008928149</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
@@ -7540,7 +7540,7 @@
         <v>12</v>
       </c>
       <c r="B91">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -7558,7 +7558,7 @@
         <v>15</v>
       </c>
       <c r="H91">
-        <v>0.26188616071424398</v>
+        <v>0.26233258928567299</v>
       </c>
       <c r="I91" t="s">
         <v>16</v>
@@ -7568,13 +7568,13 @@
       </c>
       <c r="K91">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L91" t="s">
         <v>12</v>
       </c>
       <c r="M91">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N91" t="s">
         <v>13</v>
@@ -7592,7 +7592,7 @@
         <v>17</v>
       </c>
       <c r="S91">
-        <v>0.49948381696456801</v>
+        <v>0.49914899553599601</v>
       </c>
       <c r="T91" t="s">
         <v>18</v>
@@ -7602,7 +7602,7 @@
       </c>
       <c r="W91">
         <f t="shared" si="3"/>
-        <v>0.23759765625032403</v>
+        <v>0.23681640625032302</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
@@ -7610,7 +7610,7 @@
         <v>12</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -7628,7 +7628,7 @@
         <v>15</v>
       </c>
       <c r="H92">
-        <v>0.499497767857426</v>
+        <v>0.499162946428854</v>
       </c>
       <c r="I92" t="s">
         <v>16</v>
@@ -7638,13 +7638,13 @@
       </c>
       <c r="K92">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L92" t="s">
         <v>12</v>
       </c>
       <c r="M92">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="N92" t="s">
         <v>13</v>
@@ -7662,7 +7662,7 @@
         <v>17</v>
       </c>
       <c r="S92">
-        <v>0.73681640625060596</v>
+        <v>0.73519810267917596</v>
       </c>
       <c r="T92" t="s">
         <v>18</v>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="W92">
         <f t="shared" si="3"/>
-        <v>0.23731863839317996</v>
+        <v>0.23603515625032195</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
@@ -7680,7 +7680,7 @@
         <v>12</v>
       </c>
       <c r="B93">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -7698,7 +7698,7 @@
         <v>15</v>
       </c>
       <c r="H93">
-        <v>0.73683035714346401</v>
+        <v>0.73521205357203301</v>
       </c>
       <c r="I93" t="s">
         <v>16</v>
@@ -7708,13 +7708,13 @@
       </c>
       <c r="K93">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L93" t="s">
         <v>12</v>
       </c>
       <c r="M93">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N93" t="s">
         <v>13</v>
@@ -7732,7 +7732,7 @@
         <v>17</v>
       </c>
       <c r="S93">
-        <v>0.974539620536645</v>
+        <v>0.97041015625092497</v>
       </c>
       <c r="T93" t="s">
         <v>18</v>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="W93">
         <f t="shared" si="3"/>
-        <v>0.23770926339318099</v>
+        <v>0.23519810267889196</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
@@ -7750,7 +7750,7 @@
         <v>12</v>
       </c>
       <c r="B94">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -7768,7 +7768,7 @@
         <v>15</v>
       </c>
       <c r="H94">
-        <v>0.97455357142950205</v>
+        <v>0.97042410714378202</v>
       </c>
       <c r="I94" t="s">
         <v>16</v>
@@ -7778,13 +7778,13 @@
       </c>
       <c r="K94">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L94" t="s">
         <v>12</v>
       </c>
       <c r="M94">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="N94" t="s">
         <v>13</v>
@@ -7802,7 +7802,7 @@
         <v>17</v>
       </c>
       <c r="S94">
-        <v>1.2132672991083899</v>
+        <v>1.20717075892982</v>
       </c>
       <c r="T94" t="s">
         <v>18</v>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="W94">
         <f t="shared" si="3"/>
-        <v>0.23871372767888788</v>
+        <v>0.23674665178603793</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
@@ -7820,7 +7820,7 @@
         <v>12</v>
       </c>
       <c r="B95">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
@@ -7838,7 +7838,7 @@
         <v>15</v>
       </c>
       <c r="H95">
-        <v>1.21328125000125</v>
+        <v>1.20718470982267</v>
       </c>
       <c r="I95" t="s">
         <v>16</v>
@@ -7848,13 +7848,13 @@
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L95" t="s">
         <v>12</v>
       </c>
       <c r="M95">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N95" t="s">
         <v>13</v>
@@ -7872,7 +7872,7 @@
         <v>17</v>
       </c>
       <c r="S95">
-        <v>1.45121372768015</v>
+        <v>1.44515904018014</v>
       </c>
       <c r="T95" t="s">
         <v>18</v>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="W95">
         <f t="shared" si="3"/>
-        <v>0.23793247767890002</v>
+        <v>0.23797433035746995</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
@@ -7890,7 +7890,7 @@
         <v>12</v>
       </c>
       <c r="B96">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -7908,7 +7908,7 @@
         <v>15</v>
       </c>
       <c r="H96">
-        <v>1.45122767857301</v>
+        <v>1.445172991073</v>
       </c>
       <c r="I96" t="s">
         <v>16</v>
@@ -7918,13 +7918,13 @@
       </c>
       <c r="K96">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L96" t="s">
         <v>12</v>
       </c>
       <c r="M96">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N96" t="s">
         <v>13</v>
@@ -7942,7 +7942,7 @@
         <v>17</v>
       </c>
       <c r="S96">
-        <v>1.6896484375019001</v>
+        <v>1.6820312500018899</v>
       </c>
       <c r="T96" t="s">
         <v>18</v>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="W96">
         <f t="shared" si="3"/>
-        <v>0.23842075892889003</v>
+        <v>0.2368582589288899</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
@@ -7960,7 +7960,7 @@
         <v>12</v>
       </c>
       <c r="B97">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -7978,7 +7978,7 @@
         <v>15</v>
       </c>
       <c r="H97">
-        <v>1.6896623883947599</v>
+        <v>1.68204520089475</v>
       </c>
       <c r="I97" t="s">
         <v>16</v>
@@ -7988,13 +7988,13 @@
       </c>
       <c r="K97">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L97" t="s">
         <v>12</v>
       </c>
       <c r="M97">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N97" t="s">
         <v>13</v>
@@ -8012,7 +8012,7 @@
         <v>17</v>
       </c>
       <c r="S97">
-        <v>1.92730189732365</v>
+        <v>1.9214285714307899</v>
       </c>
       <c r="T97" t="s">
         <v>18</v>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="W97">
         <f t="shared" si="3"/>
-        <v>0.23763950892889008</v>
+        <v>0.23938337053603997</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
@@ -8030,13 +8030,13 @@
         <v>12</v>
       </c>
       <c r="B98">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
@@ -8048,29 +8048,29 @@
         <v>15</v>
       </c>
       <c r="H98">
-        <v>1.92731584821651</v>
+        <v>1.92156808035936</v>
       </c>
       <c r="I98" t="s">
         <v>16</v>
       </c>
       <c r="J98">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L98" t="s">
         <v>12</v>
       </c>
       <c r="M98">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="N98" t="s">
         <v>13</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" t="s">
         <v>14</v>
@@ -8082,17 +8082,17 @@
         <v>17</v>
       </c>
       <c r="S98">
-        <v>2.1643694196427901</v>
+        <v>1.9707031250022899</v>
       </c>
       <c r="T98" t="s">
         <v>18</v>
       </c>
       <c r="U98">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="W98">
         <f t="shared" si="3"/>
-        <v>0.23705357142628003</v>
+        <v>4.9135044642929948E-2</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.2">
@@ -8100,7 +8100,7 @@
         <v>12</v>
       </c>
       <c r="B99">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -8118,7 +8118,7 @@
         <v>15</v>
       </c>
       <c r="H99">
-        <v>2.1643833705356501</v>
+        <v>1.97071707589514</v>
       </c>
       <c r="I99" t="s">
         <v>16</v>
@@ -8128,13 +8128,13 @@
       </c>
       <c r="K99">
         <f t="shared" si="2"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L99" t="s">
         <v>12</v>
       </c>
       <c r="M99">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="N99" t="s">
         <v>13</v>
@@ -8152,7 +8152,7 @@
         <v>17</v>
       </c>
       <c r="S99">
-        <v>2.4029854910678901</v>
+        <v>2.2145926339277699</v>
       </c>
       <c r="T99" t="s">
         <v>18</v>
@@ -8162,7 +8162,7 @@
       </c>
       <c r="W99">
         <f t="shared" si="3"/>
-        <v>0.23860212053223995</v>
+        <v>0.24387555803262995</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="K100">
         <f t="shared" si="2"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L100" t="s">
         <v>10</v>
@@ -8204,7 +8204,7 @@
         <v>12</v>
       </c>
       <c r="B101">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -8238,7 +8238,7 @@
         <v>12</v>
       </c>
       <c r="M101">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="N101" t="s">
         <v>13</v>
@@ -8256,7 +8256,7 @@
         <v>17</v>
       </c>
       <c r="S101">
-        <v>0.265387834821392</v>
+        <v>0.26332310267853198</v>
       </c>
       <c r="T101" t="s">
         <v>18</v>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="W101">
         <f t="shared" si="3"/>
-        <v>0.2398018973213909</v>
+        <v>0.23773716517853088</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
@@ -8274,7 +8274,7 @@
         <v>12</v>
       </c>
       <c r="B102">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
@@ -8292,7 +8292,7 @@
         <v>15</v>
       </c>
       <c r="H102">
-        <v>0.26540178571424899</v>
+        <v>0.26333705357138898</v>
       </c>
       <c r="I102" t="s">
         <v>16</v>
@@ -8308,7 +8308,7 @@
         <v>12</v>
       </c>
       <c r="M102">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N102" t="s">
         <v>13</v>
@@ -8326,7 +8326,7 @@
         <v>17</v>
       </c>
       <c r="S102">
-        <v>0.50422712053600305</v>
+        <v>0.50606863839314897</v>
       </c>
       <c r="T102" t="s">
         <v>18</v>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="W102">
         <f t="shared" si="3"/>
-        <v>0.23882533482175405</v>
+        <v>0.24273158482175999</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
@@ -8344,7 +8344,7 @@
         <v>12</v>
       </c>
       <c r="B103">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
@@ -8362,7 +8362,7 @@
         <v>15</v>
       </c>
       <c r="H103">
-        <v>0.50424107142886099</v>
+        <v>0.50608258928600602</v>
       </c>
       <c r="I103" t="s">
         <v>16</v>
@@ -8378,7 +8378,7 @@
         <v>12</v>
       </c>
       <c r="M103">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N103" t="s">
         <v>13</v>
@@ -8396,7 +8396,7 @@
         <v>17</v>
       </c>
       <c r="S103">
-        <v>0.74407087053633103</v>
+        <v>0.74557756696490396</v>
       </c>
       <c r="T103" t="s">
         <v>18</v>
@@ -8406,7 +8406,7 @@
       </c>
       <c r="W103">
         <f t="shared" si="3"/>
-        <v>0.23982979910747004</v>
+        <v>0.23949497767889794</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
@@ -8414,7 +8414,7 @@
         <v>12</v>
       </c>
       <c r="B104">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
@@ -8432,7 +8432,7 @@
         <v>15</v>
       </c>
       <c r="H104">
-        <v>0.74408482142918797</v>
+        <v>0.74559151785776101</v>
       </c>
       <c r="I104" t="s">
         <v>16</v>
@@ -8448,7 +8448,7 @@
         <v>12</v>
       </c>
       <c r="M104">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N104" t="s">
         <v>13</v>
@@ -8466,7 +8466,7 @@
         <v>17</v>
       </c>
       <c r="S104">
-        <v>0.985588727679517</v>
+        <v>0.98575613839380305</v>
       </c>
       <c r="T104" t="s">
         <v>18</v>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="W104">
         <f t="shared" si="3"/>
-        <v>0.24150390625032903</v>
+        <v>0.24016462053604204</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
@@ -8484,7 +8484,7 @@
         <v>12</v>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
@@ -8502,7 +8502,7 @@
         <v>15</v>
       </c>
       <c r="H105">
-        <v>0.98560267857237405</v>
+        <v>0.98577008928665999</v>
       </c>
       <c r="I105" t="s">
         <v>16</v>
@@ -8518,7 +8518,7 @@
         <v>12</v>
       </c>
       <c r="M105">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="N105" t="s">
         <v>13</v>
@@ -8536,7 +8536,7 @@
         <v>17</v>
       </c>
       <c r="S105">
-        <v>1.22391183035841</v>
+        <v>1.2274274553584099</v>
       </c>
       <c r="T105" t="s">
         <v>18</v>
@@ -8546,7 +8546,7 @@
       </c>
       <c r="W105">
         <f t="shared" si="3"/>
-        <v>0.23830915178603596</v>
+        <v>0.24165736607174992</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
@@ -8554,7 +8554,7 @@
         <v>12</v>
       </c>
       <c r="B106">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
@@ -8572,7 +8572,7 @@
         <v>15</v>
       </c>
       <c r="H106">
-        <v>1.2239257812512701</v>
+        <v>1.22744140625127</v>
       </c>
       <c r="I106" t="s">
         <v>16</v>
@@ -8588,7 +8588,7 @@
         <v>12</v>
       </c>
       <c r="M106">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N106" t="s">
         <v>13</v>
@@ -8606,7 +8606,7 @@
         <v>17</v>
       </c>
       <c r="S106">
-        <v>1.46268136160874</v>
+        <v>1.46586216518017</v>
       </c>
       <c r="T106" t="s">
         <v>18</v>
@@ -8616,7 +8616,7 @@
       </c>
       <c r="W106">
         <f t="shared" si="3"/>
-        <v>0.23875558035746991</v>
+        <v>0.23842075892890002</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
@@ -8624,7 +8624,7 @@
         <v>12</v>
       </c>
       <c r="B107">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
@@ -8642,7 +8642,7 @@
         <v>15</v>
       </c>
       <c r="H107">
-        <v>1.46269531250159</v>
+        <v>1.46587611607303</v>
       </c>
       <c r="I107" t="s">
         <v>16</v>
@@ -8658,7 +8658,7 @@
         <v>12</v>
       </c>
       <c r="M107">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="N107" t="s">
         <v>13</v>
@@ -8676,7 +8676,7 @@
         <v>17</v>
       </c>
       <c r="S107">
-        <v>1.70714285714478</v>
+        <v>1.70306919643049</v>
       </c>
       <c r="T107" t="s">
         <v>18</v>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="W107">
         <f t="shared" si="3"/>
-        <v>0.24444754464318996</v>
+        <v>0.23719308035746001</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.2">
@@ -8694,13 +8694,13 @@
         <v>12</v>
       </c>
       <c r="B108">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
@@ -8712,13 +8712,13 @@
         <v>15</v>
       </c>
       <c r="H108">
-        <v>1.70728236607335</v>
+        <v>1.7030831473233501</v>
       </c>
       <c r="I108" t="s">
         <v>16</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K108">
         <f t="shared" si="2"/>
@@ -8728,13 +8728,13 @@
         <v>12</v>
       </c>
       <c r="M108">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N108" t="s">
         <v>13</v>
       </c>
       <c r="O108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P108" t="s">
         <v>14</v>
@@ -8746,17 +8746,17 @@
         <v>17</v>
       </c>
       <c r="S108">
-        <v>1.7377790178591099</v>
+        <v>1.94507533482368</v>
       </c>
       <c r="T108" t="s">
         <v>18</v>
       </c>
       <c r="U108">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="W108">
         <f t="shared" si="3"/>
-        <v>3.0496651785759887E-2</v>
+        <v>0.24199218750032991</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
@@ -8764,7 +8764,7 @@
         <v>12</v>
       </c>
       <c r="B109">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -8782,7 +8782,7 @@
         <v>15</v>
       </c>
       <c r="H109">
-        <v>1.73779296875197</v>
+        <v>1.9450892857165401</v>
       </c>
       <c r="I109" t="s">
         <v>16</v>
@@ -8792,13 +8792,13 @@
       </c>
       <c r="K109">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1023.5</v>
       </c>
       <c r="L109" t="s">
         <v>12</v>
       </c>
       <c r="M109">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="N109" t="s">
         <v>13</v>
@@ -8816,7 +8816,7 @@
         <v>17</v>
       </c>
       <c r="S109">
-        <v>1.9765485491094399</v>
+        <v>2.1887834821424401</v>
       </c>
       <c r="T109" t="s">
         <v>18</v>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="W109">
         <f t="shared" si="3"/>
-        <v>0.23875558035746991</v>
+        <v>0.24369419642590007</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
@@ -8834,13 +8834,13 @@
         <v>12</v>
       </c>
       <c r="B110">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
@@ -8852,29 +8852,29 @@
         <v>15</v>
       </c>
       <c r="H110">
-        <v>1.9765625000022899</v>
+        <v>2.1889229910710002</v>
       </c>
       <c r="I110" t="s">
         <v>16</v>
       </c>
       <c r="J110">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="L110" t="s">
         <v>12</v>
       </c>
       <c r="M110">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N110" t="s">
         <v>13</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P110" t="s">
         <v>14</v>
@@ -8886,17 +8886,17 @@
         <v>17</v>
       </c>
       <c r="S110">
-        <v>2.2215680803562399</v>
+        <v>2.2099888392849798</v>
       </c>
       <c r="T110" t="s">
         <v>18</v>
       </c>
       <c r="U110">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="W110">
         <f t="shared" si="3"/>
-        <v>0.24500558035394993</v>
+        <v>2.106584821397961E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8910,8 +8910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6E9818-2F30-4B44-AB0C-404176B5CE63}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8945,31 +8945,31 @@
         <v>0.05</v>
       </c>
       <c r="B2" s="1">
-        <v>0.23537109374968007</v>
+        <v>0.21320870535716141</v>
       </c>
       <c r="C2" s="1">
-        <v>0.23976004464317491</v>
+        <v>0.23950892857175504</v>
       </c>
       <c r="D2" s="1">
-        <v>0.23366350446423989</v>
+        <v>1.4955357142857015E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>2047</v>
+        <v>1842</v>
       </c>
       <c r="G2">
-        <v>0.23366350446423989</v>
+        <v>1.4955357142857015E-2</v>
       </c>
       <c r="H2" s="3">
         <f>AVERAGE(G2:G11)</f>
-        <v>0.23537109374968007</v>
+        <v>0.21320870535716141</v>
       </c>
       <c r="I2" s="3">
         <f>MAX(G2:G11)</f>
-        <v>0.23976004464317491</v>
+        <v>0.23950892857175504</v>
       </c>
       <c r="J2" s="3">
         <f>MIN(G2:G11)</f>
-        <v>0.23366350446423989</v>
+        <v>1.4955357142857015E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -8977,27 +8977,27 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.2353124999996811</v>
+        <v>0.23513950892825536</v>
       </c>
       <c r="C3" s="1">
-        <v>0.23748604910746696</v>
+        <v>0.23737444196460999</v>
       </c>
       <c r="D3" s="1">
-        <v>0.23274274553603197</v>
+        <v>0.23331473214281079</v>
       </c>
       <c r="E3" s="1">
         <v>2047</v>
       </c>
       <c r="G3">
-        <v>0.23374720982174702</v>
+        <v>0.23419363839281651</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" si="0">AVERAGE(G3:G12)</f>
-        <v>0.21200474330325605</v>
+        <v>0.2117131696428757</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="1">MAX(G3:G12)</f>
-        <v>0.23976004464317491</v>
+        <v>0.23950892857175504</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="2">MIN(G3:G12)</f>
@@ -9009,27 +9009,27 @@
         <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>0.23518415178539837</v>
+        <v>0.23528320312468204</v>
       </c>
       <c r="C4" s="1">
         <v>0.23703962053604011</v>
       </c>
       <c r="D4" s="1">
-        <v>0.23352399553603298</v>
+        <v>0.23408203125032001</v>
       </c>
       <c r="E4" s="1">
         <v>2047</v>
       </c>
       <c r="G4">
-        <v>0.23503069196460696</v>
+        <v>0.23950892857175504</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.21208565848179112</v>
+        <v>0.21162527901787512</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>0.23976004464317491</v>
+        <v>0.23950892857175504</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
@@ -9041,27 +9041,27 @@
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.23541992187467803</v>
+        <v>0.23474330357111817</v>
       </c>
       <c r="C5" s="1">
-        <v>0.23829520088939038</v>
+        <v>0.23620256696460801</v>
       </c>
       <c r="D5" s="1">
-        <v>0.23383091517662979</v>
+        <v>0.23369140625031992</v>
       </c>
       <c r="E5" s="1">
         <v>2047</v>
       </c>
       <c r="G5">
-        <v>0.23687220982175194</v>
+        <v>0.23385881696460498</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.21185686383893362</v>
+        <v>0.21114955357144591</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>0.23976004464317491</v>
+        <v>0.23692801339318015</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
@@ -9073,27 +9073,27 @@
         <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.21386858258930336</v>
+        <v>0.21227957589287866</v>
       </c>
       <c r="C6" s="1">
-        <v>0.23625837053603194</v>
+        <v>0.23692801339317993</v>
       </c>
       <c r="D6" s="1">
-        <v>2.1554129464286316E-2</v>
+        <v>8.1054687499999747E-3</v>
       </c>
       <c r="E6" s="1">
         <v>1842</v>
       </c>
       <c r="G6">
-        <v>0.23976004464317491</v>
+        <v>0.23586774553603596</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.21190708705321945</v>
+        <v>0.2112444196428746</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>0.23976004464317491</v>
+        <v>0.23692801339318015</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
@@ -9105,27 +9105,27 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>0.23524693080325526</v>
+        <v>0.23569893973181996</v>
       </c>
       <c r="C7">
-        <v>0.2360909598180001</v>
+        <v>0.23761160714086982</v>
       </c>
       <c r="D7">
-        <v>0.23395647321460411</v>
+        <v>0.23335658482174693</v>
       </c>
       <c r="E7" s="1">
         <v>2047</v>
       </c>
       <c r="G7">
-        <v>0.23596540178603997</v>
+        <v>0.23525390625031406</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.21167968749964863</v>
+        <v>0.21121093750001743</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>0.23748604910746696</v>
+        <v>0.23692801339318015</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
@@ -9137,27 +9137,27 @@
         <v>0.35</v>
       </c>
       <c r="B8">
-        <v>0.23613978794609727</v>
+        <v>0.23629045758895337</v>
       </c>
       <c r="C8">
-        <v>0.24038783482175985</v>
+        <v>0.23960658482175989</v>
       </c>
       <c r="D8">
-        <v>0.23497488839317804</v>
+        <v>0.23408203125031901</v>
       </c>
       <c r="E8" s="1">
         <v>2047</v>
       </c>
       <c r="G8">
-        <v>0.23424944196459996</v>
+        <v>0.23402622767889003</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.21153041294607605</v>
+        <v>0.2111593191964464</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>0.23748604910746696</v>
+        <v>0.23692801339318015</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
@@ -9169,27 +9169,27 @@
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>0.23629882812466496</v>
+        <v>0.23685965401751505</v>
       </c>
       <c r="C9">
-        <v>0.23994140625032706</v>
+        <v>0.23949497767889016</v>
       </c>
       <c r="D9">
-        <v>0.23430524553603399</v>
+        <v>0.23530970982175003</v>
       </c>
       <c r="E9" s="1">
         <v>2047</v>
       </c>
       <c r="G9">
-        <v>0.23473772321459996</v>
+        <v>0.23313337053603012</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.21161969866036207</v>
+        <v>0.21123744419644641</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>0.23748604910746696</v>
+        <v>0.23692801339318015</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
@@ -9201,27 +9201,27 @@
         <v>0.45</v>
       </c>
       <c r="B10">
-        <v>0.23772739955321587</v>
+        <v>0.21887555803563491</v>
       </c>
       <c r="C10">
-        <v>0.23871372767888788</v>
+        <v>0.24387555803262995</v>
       </c>
       <c r="D10">
-        <v>0.23628627232138588</v>
+        <v>4.9135044642929948E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>2047</v>
+        <v>1842</v>
       </c>
       <c r="G10">
-        <v>0.23415178571231987</v>
+        <v>0.23692801339318015</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.21163783482107706</v>
+        <v>0.21147181919644745</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>0.23748604910746696</v>
+        <v>0.23692801339318015</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
@@ -9233,27 +9233,27 @@
         <v>0.49</v>
       </c>
       <c r="B11">
-        <v>0.21957310267848196</v>
+        <v>0.21841517857135506</v>
       </c>
       <c r="C11">
-        <v>0.24500558035394993</v>
+        <v>0.24369419642590007</v>
       </c>
       <c r="D11">
-        <v>3.0496651785759887E-2</v>
+        <v>2.106584821397961E-2</v>
       </c>
       <c r="E11" s="1">
         <v>1842</v>
       </c>
       <c r="G11">
-        <v>0.23553292410371984</v>
+        <v>0.23436104910513</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.21172572544630505</v>
+        <v>0.21151646205359037</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>0.23748604910746696</v>
+        <v>0.23737444196460999</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
@@ -9266,11 +9266,11 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.2119042968750211</v>
+        <v>0.21147321428574334</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>0.23748604910746696</v>
+        <v>0.23737444196460999</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
@@ -9279,19 +9279,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G13">
-        <v>0.23455636160709792</v>
+        <v>0.23331473214281079</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>0.2353124999996811</v>
+        <v>0.23513950892825536</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="1"/>
-        <v>0.23748604910746696</v>
+        <v>0.23737444196460999</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="2"/>
-        <v>0.23274274553603197</v>
+        <v>0.23331473214281079</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -9308,15 +9308,15 @@
         <v>9</v>
       </c>
       <c r="G14">
-        <v>0.23274274553603197</v>
+        <v>0.234751674107463</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.21185686383897123</v>
+        <v>0.21180803571397427</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>0.23748604910746696</v>
+        <v>0.23737444196460999</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
@@ -9329,26 +9329,26 @@
       </c>
       <c r="B15" s="1">
         <f>E2/B2</f>
-        <v>8696.9048211884874</v>
+        <v>8639.4220954267876</v>
       </c>
       <c r="C15" s="1">
         <f>E2/C2</f>
-        <v>8537.7027813223285</v>
+        <v>7690.7362534843915</v>
       </c>
       <c r="D15" s="1">
         <f>E2/D2</f>
-        <v>8760.4609230418992</v>
+        <v>123166.56716418016</v>
       </c>
       <c r="G15">
+        <v>0.23480747767889204</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.21175502232108059</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
         <v>0.23737444196460999</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0.21207031249964933</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0.23748604910746696</v>
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
@@ -9361,26 +9361,26 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ref="B16:B24" si="3">E3/B3</f>
-        <v>8699.0703851379512</v>
+        <v>8705.4702518094091</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ref="C16:C24" si="4">E3/C3</f>
-        <v>8619.4536803031042</v>
+        <v>8623.5063179429653</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ref="D16:D24" si="5">E3/D3</f>
-        <v>8795.1183839716905</v>
+        <v>8773.5565654167149</v>
       </c>
       <c r="G16">
-        <v>0.23748604910746696</v>
+        <v>0.23553292410746407</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0.21168526785679168</v>
+        <v>0.21172154017822337</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>0.23748604910746696</v>
+        <v>0.23737444196460999</v>
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="3"/>
-        <v>8703.8177719893883</v>
+        <v>8700.1535715885639</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
@@ -9401,18 +9401,18 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="5"/>
-        <v>8765.6944859190971</v>
+        <v>8744.7976637343945</v>
       </c>
       <c r="G17">
-        <v>0.23447265625031388</v>
+        <v>0.23473772321460395</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0.21132254464250547</v>
+        <v>0.21158203124965178</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>0.23731863839088008</v>
+        <v>0.23737444196460999</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
@@ -9425,26 +9425,26 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="3"/>
-        <v>8695.1010080178658</v>
+        <v>8720.1635525242491</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="4"/>
-        <v>8590.1855864489571</v>
+        <v>8666.2902368318355</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="5"/>
-        <v>8754.1888909503232</v>
+        <v>8759.4149602888865</v>
       </c>
       <c r="G18">
-        <v>0.2351422991074601</v>
+        <v>0.23480747767888999</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0.21132254464250608</v>
+        <v>0.21151646205322336</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>0.23731863839088008</v>
+        <v>0.23737444196460999</v>
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
@@ -9456,27 +9456,27 @@
         <v>0.25</v>
       </c>
       <c r="B19" s="1">
-        <f>E6/B6</f>
-        <v>8612.7657353826198</v>
+        <f t="shared" si="3"/>
+        <v>8677.2361036255188</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
-        <v>7796.5491585369045</v>
+        <v>7774.5133368556862</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="5"/>
-        <v>85459.26213591994</v>
+        <v>227253.97590361518</v>
       </c>
       <c r="G19">
-        <v>0.23491908482174995</v>
+        <v>0.23547712053603997</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>0.21134486607107733</v>
+        <v>0.21165039062465207</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>0.23731863839088008</v>
+        <v>0.23737444196460999</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
@@ -9489,26 +9489,26 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="3"/>
-        <v>8701.4950333697379</v>
+        <v>8684.8078414314969</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
-        <v>8670.3870473397601</v>
+        <v>8614.8990136934717</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="5"/>
-        <v>8749.4907572928041</v>
+        <v>8771.9830214503399</v>
       </c>
       <c r="G20">
-        <v>0.23503069196459991</v>
+        <v>0.23737444196460999</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0.21138253348179137</v>
+        <v>0.21165039062465213</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>0.23731863839088008</v>
+        <v>0.23737444196460999</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
@@ -9521,26 +9521,26 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="3"/>
-        <v>8668.5942161820731</v>
+        <v>8663.0667225712696</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
-        <v>8515.4059543728035</v>
+        <v>8543.1708879066737</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="5"/>
-        <v>8711.5691978744653</v>
+        <v>8744.7976637344327</v>
       </c>
       <c r="G21">
-        <v>0.23731863839088008</v>
+        <v>0.2339285714266599</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0.2115834263389354</v>
+        <v>0.21144949776750907</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>0.23731863839088008</v>
+        <v>0.23666294642511998</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
@@ -9553,22 +9553,22 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="3"/>
-        <v>8662.7598462742153</v>
+        <v>8642.248543724676</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
-        <v>8531.2494912378625</v>
+        <v>8547.1520941227191</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="5"/>
-        <v>8736.4668055849834</v>
+        <v>8699.1735341079948</v>
       </c>
       <c r="G22">
-        <v>0.23408203124659988</v>
+        <v>0.23666294642511998</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0.21152204241059436</v>
+        <v>0.2117606026784471</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -9585,22 +9585,22 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="3"/>
-        <v>8610.7028632253805</v>
+        <v>8415.7409650103818</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
-        <v>8575.1247735261222</v>
+        <v>7553.0324353109008</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="5"/>
-        <v>8663.2201688626392</v>
+        <v>37488.517887508337</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0.21170619419645337</v>
+        <v>0.21174246651788203</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -9616,23 +9616,23 @@
         <v>0.49</v>
       </c>
       <c r="B24" s="1">
-        <f>E11/B11</f>
-        <v>8389.0056547464137</v>
+        <f t="shared" si="3"/>
+        <v>8433.4798160478058</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
-        <v>7518.1961053251725</v>
+        <v>7558.6535379807283</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="5"/>
-        <v>60400.073192956341</v>
+        <v>87440.105961535475</v>
       </c>
       <c r="G24">
-        <v>0.23487723214281281</v>
+        <v>0.23422154017852592</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>0.23518415178539837</v>
+        <v>0.23528320312468204</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="1"/>
@@ -9640,16 +9640,16 @@
       </c>
       <c r="J24" s="4">
         <f t="shared" si="2"/>
-        <v>0.23352399553603298</v>
+        <v>0.23408203125032001</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G25">
-        <v>0.23352399553603298</v>
+        <v>0.23447265625031999</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0.21169642857111706</v>
+        <v>0.21186104910682949</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
@@ -9674,11 +9674,11 @@
         <v>23</v>
       </c>
       <c r="G26">
-        <v>0.23385881696460503</v>
+        <v>0.23413783482174805</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0.21174386160679498</v>
+        <v>0.21202566964250749</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -9695,22 +9695,22 @@
       </c>
       <c r="B27" s="1">
         <f>FLOOR(B15,1)</f>
-        <v>8696</v>
+        <v>8639</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" ref="C27:D27" si="6">FLOOR(C15,1)</f>
-        <v>8537</v>
+        <v>7690</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="6"/>
-        <v>8760</v>
+        <v>123166</v>
       </c>
       <c r="G27">
-        <v>0.23447265625031999</v>
+        <v>0.23408203125032001</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0.2117438616067949</v>
+        <v>0.21223214285679348</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
@@ -9727,22 +9727,22 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ref="B28:D28" si="7">FLOOR(B16,1)</f>
-        <v>8699</v>
+        <v>8705</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="7"/>
-        <v>8619</v>
+        <v>8623</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="7"/>
-        <v>8795</v>
+        <v>8773</v>
       </c>
       <c r="G28">
-        <v>0.23536551339317291</v>
+        <v>0.23614676339317697</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>0.21170479910679479</v>
+        <v>0.21224330357107918</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ref="B29:D29" si="8">FLOOR(B17,1)</f>
-        <v>8703</v>
+        <v>8700</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="8"/>
@@ -9767,14 +9767,14 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="8"/>
-        <v>8765</v>
+        <v>8744</v>
       </c>
       <c r="G29">
-        <v>0.23529575892888999</v>
+        <v>0.23547712053603997</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>0.21185546874965269</v>
+        <v>0.21212053571393641</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
@@ -9791,22 +9791,22 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ref="B30:D30" si="9">FLOOR(B18,1)</f>
-        <v>8695</v>
+        <v>8720</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="9"/>
-        <v>8590</v>
+        <v>8666</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="9"/>
-        <v>8754</v>
+        <v>8759</v>
       </c>
       <c r="G30">
-        <v>0.23703962053604011</v>
+        <v>0.23536551339317979</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>0.21190011160679498</v>
+        <v>0.21195312499965011</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -9823,26 +9823,26 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ref="B31:D31" si="10">FLOOR(B19,1)</f>
-        <v>8612</v>
+        <v>8677</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="10"/>
-        <v>7796</v>
+        <v>7774</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="10"/>
-        <v>85459</v>
+        <v>227253</v>
       </c>
       <c r="G31">
-        <v>0.23670479910747</v>
+        <v>0.23703962053604011</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>0.21172572544607995</v>
+        <v>0.21178571428536408</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>0.23687220982175206</v>
+        <v>0.23703962053604011</v>
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
@@ -9855,26 +9855,26 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ref="B32:D32" si="11">FLOOR(B20,1)</f>
-        <v>8701</v>
+        <v>8684</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="11"/>
-        <v>8670</v>
+        <v>8614</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="11"/>
-        <v>8749</v>
+        <v>8771</v>
       </c>
       <c r="G32">
-        <v>0.23592354910518987</v>
+        <v>0.23648158481946968</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>0.21170340401750795</v>
+        <v>0.21164062499964906</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>0.23687220982175206</v>
+        <v>0.23648158481946968</v>
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
@@ -9887,26 +9887,26 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:D33" si="12">FLOOR(B21,1)</f>
-        <v>8668</v>
+        <v>8663</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="12"/>
-        <v>8515</v>
+        <v>8543</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="12"/>
-        <v>8711</v>
+        <v>8744</v>
       </c>
       <c r="G33">
-        <v>0.23477957588944998</v>
+        <v>0.23540736606800028</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>0.21168526785702099</v>
+        <v>0.21137276785701911</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>0.23687220982175206</v>
+        <v>0.23620256696460801</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
@@ -9919,26 +9919,26 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ref="B34:D34" si="13">FLOOR(B22,1)</f>
-        <v>8662</v>
+        <v>8642</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="13"/>
-        <v>8531</v>
+        <v>8547</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="13"/>
-        <v>8736</v>
+        <v>8699</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>0.21159040178573899</v>
+        <v>0.21130998883931612</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>0.23687220982175206</v>
+        <v>0.23620256696460801</v>
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
@@ -9951,30 +9951,30 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ref="B35:D35" si="14">FLOOR(B23,1)</f>
-        <v>8610</v>
+        <v>8415</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="14"/>
-        <v>8575</v>
+        <v>7553</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="14"/>
-        <v>8663</v>
+        <v>37488</v>
       </c>
       <c r="G35">
-        <v>0.23399832589281189</v>
+        <v>0.23611886160709988</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="0"/>
-        <v>0.23541992187467803</v>
+        <v>0.23474330357111817</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="1"/>
-        <v>0.23829520088939038</v>
+        <v>0.23620256696460801</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="2"/>
-        <v>0.23383091517662979</v>
+        <v>0.23369140625031992</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -9983,26 +9983,26 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ref="B36:D36" si="15">FLOOR(B24,1)</f>
-        <v>8389</v>
+        <v>8433</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="15"/>
-        <v>7518</v>
+        <v>7558</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="15"/>
-        <v>60400</v>
+        <v>87440</v>
       </c>
       <c r="G36">
-        <v>0.23385881696460403</v>
+        <v>0.23620256696460801</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>0.21202008928539681</v>
+        <v>0.21113141741040814</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>0.23829520088939038</v>
+        <v>0.23620256696460801</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
@@ -10011,15 +10011,15 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G37">
-        <v>0.23408203125031901</v>
+        <v>0.23419363839317703</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>0.19078962053536505</v>
+        <v>0.18832170758894737</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>0.23829520088939038</v>
+        <v>0.23558872767888994</v>
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
@@ -10040,15 +10040,15 @@
         <v>6</v>
       </c>
       <c r="G38">
-        <v>0.23687220982175206</v>
+        <v>0.23491908482174906</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>0.19079101562461492</v>
+        <v>0.18853655133891165</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>0.23829520088939038</v>
+        <v>0.23634207589281989</v>
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
@@ -10061,26 +10061,26 @@
       </c>
       <c r="B39" s="1">
         <f>ROUND(B2,6)</f>
-        <v>0.235371</v>
+        <v>0.21320900000000001</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" ref="C39:D39" si="16">ROUND(C2,6)</f>
-        <v>0.23976</v>
+        <v>0.239509</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="16"/>
-        <v>0.23366400000000001</v>
+        <v>1.4955E-2</v>
       </c>
       <c r="G39">
-        <v>0.23574218750031295</v>
+        <v>0.23380301339317699</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>0.190691964285329</v>
+        <v>0.18836914062462565</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>0.23829520088939038</v>
+        <v>0.23634207589281989</v>
       </c>
       <c r="J39">
         <f t="shared" si="2"/>
@@ -10093,26 +10093,26 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ref="B40:D40" si="17">ROUND(B3,6)</f>
-        <v>0.23531199999999999</v>
+        <v>0.23513999999999999</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="17"/>
-        <v>0.237486</v>
+        <v>0.237374</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="17"/>
-        <v>0.23274300000000001</v>
+        <v>0.23331499999999999</v>
       </c>
       <c r="G40">
-        <v>0.23529575892888999</v>
+        <v>0.23369140625031992</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>0.1906263950889012</v>
+        <v>0.18838030133891134</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>0.23829520088939038</v>
+        <v>0.23634207589281989</v>
       </c>
       <c r="J40">
         <f t="shared" si="2"/>
@@ -10125,7 +10125,7 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ref="B41:D41" si="18">ROUND(B4,6)</f>
-        <v>0.235184</v>
+        <v>0.23528299999999999</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="18"/>
@@ -10133,18 +10133,18 @@
       </c>
       <c r="D41" s="1">
         <f t="shared" si="18"/>
-        <v>0.23352400000000001</v>
+        <v>0.23408200000000001</v>
       </c>
       <c r="G41">
-        <v>0.23648158482175008</v>
+        <v>0.23558872767888994</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>0.19062779017818723</v>
+        <v>0.18838588169605405</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>0.23829520088939038</v>
+        <v>0.23634207589281989</v>
       </c>
       <c r="J41">
         <f t="shared" si="2"/>
@@ -10157,26 +10157,26 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ref="B42:D42" si="19">ROUND(B5,6)</f>
-        <v>0.23541999999999999</v>
+        <v>0.23474300000000001</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="19"/>
-        <v>0.23829500000000001</v>
+        <v>0.236203</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="19"/>
-        <v>0.23383100000000001</v>
+        <v>0.23369100000000001</v>
       </c>
       <c r="G42">
-        <v>0.23574218750032006</v>
+        <v>0.23380301339317011</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>0.1906054687496154</v>
+        <v>0.18834542410676774</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>0.23829520088939038</v>
+        <v>0.23634207589281989</v>
       </c>
       <c r="J42">
         <f t="shared" si="2"/>
@@ -10189,26 +10189,26 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ref="B43:D43" si="20">ROUND(B6,6)</f>
-        <v>0.213869</v>
+        <v>0.21228</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="20"/>
-        <v>0.236258</v>
+        <v>0.236928</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="20"/>
-        <v>2.1554E-2</v>
+        <v>8.1049999999999994E-3</v>
       </c>
       <c r="G43">
-        <v>0.23383091517662979</v>
+        <v>0.23477957589097032</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>0.19046735491032937</v>
+        <v>0.18853515624962575</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>0.23829520088939038</v>
+        <v>0.23634207589281989</v>
       </c>
       <c r="J43">
         <f t="shared" si="2"/>
@@ -10221,26 +10221,26 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ref="B44:D44" si="21">ROUND(B7,6)</f>
-        <v>0.23524700000000001</v>
+        <v>0.23569899999999999</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="21"/>
-        <v>0.236091</v>
+        <v>0.23761199999999999</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="21"/>
-        <v>0.233956</v>
+        <v>0.23335700000000001</v>
       </c>
       <c r="G44">
-        <v>0.23829520088939038</v>
+        <v>0.23433314731802035</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>0.1904910714284124</v>
+        <v>0.18850864955341773</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>0.23829520088939038</v>
+        <v>0.23634207589281989</v>
       </c>
       <c r="J44">
         <f t="shared" si="2"/>
@@ -10253,26 +10253,26 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ref="B45:D45" si="22">ROUND(B8,6)</f>
-        <v>0.23613999999999999</v>
+        <v>0.23629</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="22"/>
-        <v>0.24038799999999999</v>
+        <v>0.23960699999999999</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="22"/>
-        <v>0.23497499999999999</v>
+        <v>0.23408200000000001</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>0.19027622767879135</v>
+        <v>0.18876813616093369</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>0.23625837053603194</v>
+        <v>0.23692801339317993</v>
       </c>
       <c r="J45">
         <f t="shared" si="2"/>
@@ -10285,30 +10285,30 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ref="B46:D46" si="23">ROUND(B9,6)</f>
-        <v>0.23629900000000001</v>
+        <v>0.23685999999999999</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="23"/>
-        <v>0.23994099999999999</v>
+        <v>0.23949500000000001</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="23"/>
-        <v>0.23430500000000001</v>
+        <v>0.23530999999999999</v>
       </c>
       <c r="G46">
-        <v>2.1554129464286316E-2</v>
+        <v>8.1054687499999747E-3</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="0"/>
-        <v>0.21386858258930336</v>
+        <v>0.21227957589287866</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="1"/>
-        <v>0.23625837053603194</v>
+        <v>0.23692801339317993</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="2"/>
-        <v>2.1554129464286316E-2</v>
+        <v>8.1054687499999747E-3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -10317,26 +10317,26 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ref="B47:D47" si="24">ROUND(B10,6)</f>
-        <v>0.23772699999999999</v>
+        <v>0.21887599999999999</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="24"/>
-        <v>0.23871400000000001</v>
+        <v>0.24387600000000001</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="24"/>
-        <v>0.236286</v>
+        <v>4.9134999999999998E-2</v>
       </c>
       <c r="G47">
-        <v>0.23409598214281746</v>
+        <v>0.23634207589281989</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>0.21171316964287473</v>
+        <v>0.21146902901787867</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>0.23625837053603194</v>
+        <v>0.23692801339317993</v>
       </c>
       <c r="J47">
         <f t="shared" si="2"/>
@@ -10349,26 +10349,26 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ref="B48:D48" si="25">ROUND(B11,6)</f>
-        <v>0.21957299999999999</v>
+        <v>0.218415</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="25"/>
-        <v>0.245006</v>
+        <v>0.24369399999999999</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="25"/>
-        <v>3.0497E-2</v>
+        <v>2.1066000000000001E-2</v>
       </c>
       <c r="G48">
-        <v>0.23588169642889295</v>
+        <v>0.23324497767888902</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>0.21179129464287424</v>
+        <v>0.21146902901787809</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>0.23625837053603194</v>
+        <v>0.23692801339317993</v>
       </c>
       <c r="J48">
         <f t="shared" si="2"/>
@@ -10377,15 +10377,15 @@
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G49">
-        <v>0.235086495536035</v>
+        <v>0.23391462053603401</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>0.21167829241073127</v>
+        <v>0.21170898437502134</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>0.23625837053603194</v>
+        <v>0.23692801339317993</v>
       </c>
       <c r="J49">
         <f t="shared" si="2"/>
@@ -10394,15 +10394,15 @@
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G50">
-        <v>0.23530970982175003</v>
+        <v>0.23374720982174702</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>0.21173967633930274</v>
+        <v>0.21165318080359263</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>0.23625837053603194</v>
+        <v>0.23692801339317993</v>
       </c>
       <c r="J50">
         <f t="shared" si="2"/>
@@ -10411,15 +10411,15 @@
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G51">
-        <v>0.23625837053603194</v>
+        <v>0.23518415178602692</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>0.21180664062501706</v>
+        <v>0.21177176339287848</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>0.23625837053603194</v>
+        <v>0.23692801339317993</v>
       </c>
       <c r="J51">
         <f t="shared" si="2"/>
@@ -10428,15 +10428,15 @@
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G52">
-        <v>0.23436104910745992</v>
+        <v>0.23570033482175012</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>0.21157645089287427</v>
+        <v>0.21177176339287901</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>0.23614676339317997</v>
+        <v>0.23692801339317993</v>
       </c>
       <c r="J52">
         <f t="shared" si="2"/>
@@ -10445,15 +10445,15 @@
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G53">
-        <v>0.23406808035745996</v>
+        <v>0.23451450892889003</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>0.21173270089287524</v>
+        <v>0.21186104910716402</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>0.23614676339317997</v>
+        <v>0.23692801339317993</v>
       </c>
       <c r="J53">
         <f t="shared" si="2"/>
@@ -10462,15 +10462,15 @@
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G54">
-        <v>0.23614676339317997</v>
+        <v>0.23692801339317993</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>0.21180664062501825</v>
+        <v>0.21191266741073597</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>0.23614676339317997</v>
+        <v>0.23692801339317993</v>
       </c>
       <c r="J54">
         <f t="shared" si="2"/>
@@ -10479,15 +10479,15 @@
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G55">
-        <v>0.23592354910511992</v>
+        <v>0.23511439731944983</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>0.21165039062501823</v>
+        <v>0.211745256696451</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>0.23597935267889303</v>
+        <v>0.23659319196460005</v>
       </c>
       <c r="J55">
         <f t="shared" si="2"/>
@@ -10500,11 +10500,11 @@
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>0.21163783482145523</v>
+        <v>0.21199497767859299</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>0.23597935267889303</v>
+        <v>0.23761160714086982</v>
       </c>
       <c r="J56">
         <f t="shared" si="2"/>
@@ -10513,32 +10513,32 @@
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G57">
-        <v>0.23487723214281281</v>
+        <v>0.23634207589281431</v>
       </c>
       <c r="H57" s="4">
         <f t="shared" si="0"/>
-        <v>0.23524693080325526</v>
+        <v>0.23569893973181996</v>
       </c>
       <c r="I57" s="4">
         <f t="shared" si="1"/>
-        <v>0.2360909598180001</v>
+        <v>0.23761160714086982</v>
       </c>
       <c r="J57" s="4">
         <f t="shared" si="2"/>
-        <v>0.23395647321460411</v>
+        <v>0.23335658482174693</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G58">
-        <v>0.234751674107463</v>
+        <v>0.23564453125032103</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>0.21175920758897399</v>
+        <v>0.21206473214253857</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>0.2360909598180001</v>
+        <v>0.23761160714086982</v>
       </c>
       <c r="J58">
         <f t="shared" si="2"/>
@@ -10547,15 +10547,15 @@
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G59">
-        <v>0.23570033482174996</v>
+        <v>0.23335658482174693</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>0.21191127232108059</v>
+        <v>0.21196010044607344</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
-        <v>0.23627232142852878</v>
+        <v>0.23761160714086982</v>
       </c>
       <c r="J59">
         <f t="shared" si="2"/>
@@ -10564,15 +10564,15 @@
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G60">
-        <v>0.23597935267889303</v>
+        <v>0.234933035714606</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>0.21183872767822337</v>
+        <v>0.21203264508893063</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
-        <v>0.23627232142852878</v>
+        <v>0.23761160714086982</v>
       </c>
       <c r="J60">
         <f t="shared" si="2"/>
@@ -10581,15 +10581,15 @@
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G61">
-        <v>0.23395647321460411</v>
+        <v>0.23518415178603203</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>0.21174386160679468</v>
+        <v>0.21220982142821665</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
-        <v>0.23627232142852878</v>
+        <v>0.23761160714086982</v>
       </c>
       <c r="J61">
         <f t="shared" si="2"/>
@@ -10598,15 +10598,15 @@
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G62">
-        <v>0.23592354910747004</v>
+        <v>0.23659319196460005</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>0.21185128348179486</v>
+        <v>0.21216099330321697</v>
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
-        <v>0.23627232142852878</v>
+        <v>0.23761160714086982</v>
       </c>
       <c r="J62">
         <f t="shared" si="2"/>
@@ -10615,15 +10615,15 @@
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G63">
-        <v>0.23480747767888999</v>
+        <v>0.23503069196460991</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>0.21189592633893722</v>
+        <v>0.21209821428536033</v>
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
-        <v>0.23636997767889401</v>
+        <v>0.23761160714086982</v>
       </c>
       <c r="J63">
         <f t="shared" si="2"/>
@@ -10632,15 +10632,15 @@
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G64">
-        <v>0.23458426339317984</v>
+        <v>0.23525390625033005</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>0.21245396205322425</v>
+        <v>0.21255580357107534</v>
       </c>
       <c r="I64">
         <f t="shared" si="1"/>
-        <v>0.24038783482175985</v>
+        <v>0.23960658482175989</v>
       </c>
       <c r="J64">
         <f t="shared" si="2"/>
@@ -10649,15 +10649,15 @@
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G65">
-        <v>0.23579799106948984</v>
+        <v>0.23761160714086982</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>0.2125697544639383</v>
+        <v>0.21252650669607429</v>
       </c>
       <c r="I65">
         <f t="shared" si="1"/>
-        <v>0.24038783482175985</v>
+        <v>0.23960658482175989</v>
       </c>
       <c r="J65">
         <f t="shared" si="2"/>
@@ -10666,15 +10666,15 @@
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G66">
-        <v>0.2360909598180001</v>
+        <v>0.23703962053226979</v>
       </c>
       <c r="H66">
         <f t="shared" si="0"/>
-        <v>0.21257533482130633</v>
+        <v>0.21249581473201937</v>
       </c>
       <c r="I66">
         <f t="shared" si="1"/>
-        <v>0.24038783482175985</v>
+        <v>0.23960658482175989</v>
       </c>
       <c r="J66">
         <f t="shared" si="2"/>
@@ -10687,11 +10687,11 @@
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H110" si="26">AVERAGE(G67:G76)</f>
-        <v>0.21249860491072728</v>
+        <v>0.21236746651787239</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I110" si="27">MAX(G67:G76)</f>
-        <v>0.24038783482175985</v>
+        <v>0.23960658482175989</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J110" si="28">MIN(G67:G76)</f>
@@ -10700,32 +10700,32 @@
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G68">
-        <v>0.23627232142852878</v>
+        <v>0.23459821428566979</v>
       </c>
       <c r="H68" s="4">
         <f t="shared" si="26"/>
-        <v>0.23613978794609727</v>
+        <v>0.23629045758895337</v>
       </c>
       <c r="I68" s="4">
         <f t="shared" si="27"/>
-        <v>0.24038783482175985</v>
+        <v>0.23960658482175989</v>
       </c>
       <c r="J68" s="4">
         <f t="shared" si="28"/>
-        <v>0.23497488839317804</v>
+        <v>0.23408203125031901</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G69">
-        <v>0.23497488839317804</v>
+        <v>0.23408203125031901</v>
       </c>
       <c r="H69">
         <f t="shared" si="26"/>
-        <v>0.21251255580324441</v>
+        <v>0.21283063616038636</v>
       </c>
       <c r="I69">
         <f t="shared" si="27"/>
-        <v>0.24038783482175985</v>
+        <v>0.23960658482175989</v>
       </c>
       <c r="J69">
         <f t="shared" si="28"/>
@@ -10734,15 +10734,15 @@
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G70">
-        <v>0.23503069196460596</v>
+        <v>0.23670479910746595</v>
       </c>
       <c r="H70">
         <f t="shared" si="26"/>
-        <v>0.21258370535677945</v>
+        <v>0.21312918526749317</v>
       </c>
       <c r="I70">
         <f t="shared" si="27"/>
-        <v>0.24038783482175985</v>
+        <v>0.23960658482175989</v>
       </c>
       <c r="J70">
         <f t="shared" si="28"/>
@@ -10751,15 +10751,15 @@
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G71">
-        <v>0.23503069196460602</v>
+        <v>0.23469587053603502</v>
       </c>
       <c r="H71">
         <f t="shared" si="26"/>
-        <v>0.21251116071392223</v>
+        <v>0.21298967633892157</v>
       </c>
       <c r="I71">
         <f t="shared" si="27"/>
-        <v>0.24038783482175985</v>
+        <v>0.23960658482175989</v>
       </c>
       <c r="J71">
         <f t="shared" si="28"/>
@@ -10768,15 +10768,15 @@
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G72">
-        <v>0.23636997767889401</v>
+        <v>0.23596540178603409</v>
       </c>
       <c r="H72">
         <f t="shared" si="26"/>
-        <v>0.21300223214249434</v>
+        <v>0.21312499999963599</v>
       </c>
       <c r="I72">
         <f t="shared" si="27"/>
-        <v>0.24038783482175985</v>
+        <v>0.23960658482175989</v>
       </c>
       <c r="J72">
         <f t="shared" si="28"/>
@@ -10785,15 +10785,15 @@
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G73">
-        <v>0.24038783482175985</v>
+        <v>0.23960658482175989</v>
       </c>
       <c r="H73">
         <f t="shared" si="26"/>
-        <v>0.21304129464249444</v>
+        <v>0.21312081473177907</v>
       </c>
       <c r="I73">
         <f t="shared" si="27"/>
-        <v>0.24038783482175985</v>
+        <v>0.23960658482175989</v>
       </c>
       <c r="J73">
         <f t="shared" si="28"/>
@@ -10802,15 +10802,15 @@
     </row>
     <row r="74" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G74">
-        <v>0.23574218750032006</v>
+        <v>0.23496093750031988</v>
       </c>
       <c r="H74">
         <f t="shared" si="26"/>
-        <v>0.21254324776749295</v>
+        <v>0.21289062499963504</v>
       </c>
       <c r="I74">
         <f t="shared" si="27"/>
-        <v>0.23994140625032706</v>
+        <v>0.23922991071080979</v>
       </c>
       <c r="J74">
         <f t="shared" si="28"/>
@@ -10819,15 +10819,15 @@
     </row>
     <row r="75" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G75">
-        <v>0.23585379464317002</v>
+        <v>0.23730468750031997</v>
       </c>
       <c r="H75">
         <f t="shared" si="26"/>
-        <v>0.21257254464249295</v>
+        <v>0.21319196428534909</v>
       </c>
       <c r="I75">
         <f t="shared" si="27"/>
-        <v>0.23994140625032706</v>
+        <v>0.23922991071080979</v>
       </c>
       <c r="J75">
         <f t="shared" si="28"/>
@@ -10836,15 +10836,15 @@
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G76">
-        <v>0.23532366071221</v>
+        <v>0.23575613839080023</v>
       </c>
       <c r="H76">
         <f t="shared" si="26"/>
-        <v>0.21261300223177892</v>
+        <v>0.21304268973177809</v>
       </c>
       <c r="I76">
         <f t="shared" si="27"/>
-        <v>0.23994140625032706</v>
+        <v>0.23922991071080979</v>
       </c>
       <c r="J76">
         <f t="shared" si="28"/>
@@ -10853,15 +10853,15 @@
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G77">
-        <v>0.23641183035369995</v>
+        <v>0.23922991071080979</v>
       </c>
       <c r="H77">
         <f t="shared" si="26"/>
-        <v>0.21264369419630391</v>
+        <v>0.21341657366058708</v>
       </c>
       <c r="I77">
         <f t="shared" si="27"/>
-        <v>0.23994140625032706</v>
+        <v>0.23949497767889016</v>
       </c>
       <c r="J77">
         <f t="shared" si="28"/>
@@ -10874,11 +10874,11 @@
       </c>
       <c r="H78">
         <f t="shared" si="26"/>
-        <v>0.21269531250000898</v>
+        <v>0.21313058035714608</v>
       </c>
       <c r="I78">
         <f t="shared" si="27"/>
-        <v>0.23994140625032706</v>
+        <v>0.23949497767889016</v>
       </c>
       <c r="J78">
         <f t="shared" si="28"/>
@@ -10887,32 +10887,32 @@
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G79">
-        <v>0.2356863839285285</v>
+        <v>0.23706752232138689</v>
       </c>
       <c r="H79" s="4">
         <f t="shared" si="26"/>
-        <v>0.23629882812466496</v>
+        <v>0.23685965401751505</v>
       </c>
       <c r="I79" s="4">
         <f t="shared" si="27"/>
-        <v>0.23994140625032706</v>
+        <v>0.23949497767889016</v>
       </c>
       <c r="J79" s="4">
         <f t="shared" si="28"/>
-        <v>0.23430524553603399</v>
+        <v>0.23530970982175003</v>
       </c>
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G80">
-        <v>0.23430524553603399</v>
+        <v>0.23530970982175003</v>
       </c>
       <c r="H80">
         <f t="shared" si="26"/>
-        <v>0.21273018973181207</v>
+        <v>0.21315290178537633</v>
       </c>
       <c r="I80">
         <f t="shared" si="27"/>
-        <v>0.23994140625032706</v>
+        <v>0.23949497767889016</v>
       </c>
       <c r="J80">
         <f t="shared" si="28"/>
@@ -10921,15 +10921,15 @@
     </row>
     <row r="81" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G81">
-        <v>0.23994140625032706</v>
+        <v>0.23604910714317895</v>
       </c>
       <c r="H81">
         <f t="shared" si="26"/>
-        <v>0.21292829241034728</v>
+        <v>0.21329520089248283</v>
       </c>
       <c r="I81">
         <f t="shared" si="27"/>
-        <v>0.23994140625032706</v>
+        <v>0.23949497767889016</v>
       </c>
       <c r="J81">
         <f t="shared" si="28"/>
@@ -10938,15 +10938,15 @@
     </row>
     <row r="82" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G82">
-        <v>0.23676060267889498</v>
+        <v>0.23592354910746494</v>
       </c>
       <c r="H82">
         <f t="shared" si="26"/>
-        <v>0.21269391741034696</v>
+        <v>0.21337193080319725</v>
       </c>
       <c r="I82">
         <f t="shared" si="27"/>
-        <v>0.23759765625032403</v>
+        <v>0.23949497767889016</v>
       </c>
       <c r="J82">
         <f t="shared" si="28"/>
@@ -10955,15 +10955,15 @@
     </row>
     <row r="83" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G83">
-        <v>0.23540736607174495</v>
+        <v>0.23730468750031997</v>
       </c>
       <c r="H83">
         <f t="shared" si="26"/>
-        <v>0.21274972098177547</v>
+        <v>0.21338309151748294</v>
       </c>
       <c r="I83">
         <f t="shared" si="27"/>
-        <v>0.23759765625032403</v>
+        <v>0.23949497767889016</v>
       </c>
       <c r="J83">
         <f t="shared" si="28"/>
@@ -10972,15 +10972,15 @@
     </row>
     <row r="84" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G84">
-        <v>0.23603515625032001</v>
+        <v>0.23797433035745996</v>
       </c>
       <c r="H84">
         <f t="shared" si="26"/>
-        <v>0.21297991071391906</v>
+        <v>0.21317243303534017</v>
       </c>
       <c r="I84">
         <f t="shared" si="27"/>
-        <v>0.23770926339318099</v>
+        <v>0.23949497767889016</v>
       </c>
       <c r="J84">
         <f t="shared" si="28"/>
@@ -10989,15 +10989,15 @@
     </row>
     <row r="85" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G85">
-        <v>0.23625837053602994</v>
+        <v>0.23581194196460986</v>
       </c>
       <c r="H85">
         <f t="shared" si="26"/>
-        <v>0.21324776785677585</v>
+        <v>0.21304966517819796</v>
       </c>
       <c r="I85">
         <f t="shared" si="27"/>
-        <v>0.23871372767888788</v>
+        <v>0.23949497767889016</v>
       </c>
       <c r="J85">
         <f t="shared" si="28"/>
@@ -11006,15 +11006,15 @@
     </row>
     <row r="86" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G86">
-        <v>0.23563058035745987</v>
+        <v>0.23949497767889016</v>
       </c>
       <c r="H86">
         <f t="shared" si="26"/>
-        <v>0.2134151785710629</v>
+        <v>0.21326590401748396</v>
       </c>
       <c r="I86">
         <f t="shared" si="27"/>
-        <v>0.23871372767888788</v>
+        <v>0.23949497767889016</v>
       </c>
       <c r="J86">
         <f t="shared" si="28"/>
@@ -11023,15 +11023,15 @@
     </row>
     <row r="87" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G87">
-        <v>0.23692801339075009</v>
+        <v>0.23636997767639989</v>
       </c>
       <c r="H87">
         <f t="shared" si="26"/>
-        <v>0.21369419642820589</v>
+        <v>0.2130022321424839</v>
       </c>
       <c r="I87">
         <f t="shared" si="27"/>
-        <v>0.23871372767888788</v>
+        <v>0.23797433035746995</v>
       </c>
       <c r="J87">
         <f t="shared" si="28"/>
@@ -11040,15 +11040,15 @@
     </row>
     <row r="88" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G88">
-        <v>0.23603515624655991</v>
+        <v>0.23729073660368982</v>
       </c>
       <c r="H88">
         <f t="shared" si="26"/>
-        <v>0.21376534598201985</v>
+        <v>0.21330357142844797</v>
       </c>
       <c r="I88">
         <f t="shared" si="27"/>
-        <v>0.23871372767888788</v>
+        <v>0.23938337053603997</v>
       </c>
       <c r="J88">
         <f t="shared" si="28"/>
@@ -11061,11 +11061,11 @@
       </c>
       <c r="H89">
         <f t="shared" si="26"/>
-        <v>0.21386718749999187</v>
+        <v>0.19448800223237195</v>
       </c>
       <c r="I89">
         <f t="shared" si="27"/>
-        <v>0.23871372767888788</v>
+        <v>0.23938337053603997</v>
       </c>
       <c r="J89">
         <f t="shared" si="28"/>
@@ -11074,32 +11074,32 @@
     </row>
     <row r="90" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G90">
-        <v>0.23628627232138588</v>
+        <v>0.2367327008928149</v>
       </c>
       <c r="H90" s="2">
         <f t="shared" si="26"/>
-        <v>0.23772739955321587</v>
+        <v>0.21887555803563491</v>
       </c>
       <c r="I90" s="2">
         <f t="shared" si="27"/>
-        <v>0.23871372767888788</v>
+        <v>0.24387555803262995</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="28"/>
-        <v>0.23628627232138588</v>
+        <v>4.9135044642929948E-2</v>
       </c>
     </row>
     <row r="91" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G91">
-        <v>0.23759765625032403</v>
+        <v>0.23681640625032302</v>
       </c>
       <c r="H91">
         <f t="shared" si="26"/>
-        <v>0.2140987723210773</v>
+        <v>0.19520228794635347</v>
       </c>
       <c r="I91">
         <f t="shared" si="27"/>
-        <v>0.23871372767888788</v>
+        <v>0.24387555803262995</v>
       </c>
       <c r="J91">
         <f t="shared" si="28"/>
@@ -11108,15 +11108,15 @@
     </row>
     <row r="92" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G92">
-        <v>0.23731863839317996</v>
+        <v>0.23603515625032195</v>
       </c>
       <c r="H92">
         <f t="shared" si="26"/>
-        <v>0.21431919642818401</v>
+        <v>0.19529436383917426</v>
       </c>
       <c r="I92">
         <f t="shared" si="27"/>
-        <v>0.2398018973213909</v>
+        <v>0.24387555803262995</v>
       </c>
       <c r="J92">
         <f t="shared" si="28"/>
@@ -11125,15 +11125,15 @@
     </row>
     <row r="93" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G93">
-        <v>0.23770926339318099</v>
+        <v>0.23519810267889196</v>
       </c>
       <c r="H93">
         <f t="shared" si="26"/>
-        <v>0.2144698660710414</v>
+        <v>0.19596400669631805</v>
       </c>
       <c r="I93">
         <f t="shared" si="27"/>
-        <v>0.2398018973213909</v>
+        <v>0.24387555803262995</v>
       </c>
       <c r="J93">
         <f t="shared" si="28"/>
@@ -11142,15 +11142,15 @@
     </row>
     <row r="94" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G94">
-        <v>0.23871372767888788</v>
+        <v>0.23674665178603793</v>
       </c>
       <c r="H94">
         <f t="shared" si="26"/>
-        <v>0.2146819196424703</v>
+        <v>0.19639369419631864</v>
       </c>
       <c r="I94">
         <f t="shared" si="27"/>
-        <v>0.23982979910747004</v>
+        <v>0.24387555803262995</v>
       </c>
       <c r="J94">
         <f t="shared" si="28"/>
@@ -11159,15 +11159,15 @@
     </row>
     <row r="95" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G95">
-        <v>0.23793247767890002</v>
+        <v>0.23797433035746995</v>
       </c>
       <c r="H95">
         <f t="shared" si="26"/>
-        <v>0.21496093749961442</v>
+        <v>0.19673549107131905</v>
       </c>
       <c r="I95">
         <f t="shared" si="27"/>
-        <v>0.24150390625032903</v>
+        <v>0.24387555803262995</v>
       </c>
       <c r="J95">
         <f t="shared" si="28"/>
@@ -11176,15 +11176,15 @@
     </row>
     <row r="96" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G96">
-        <v>0.23842075892889003</v>
+        <v>0.2368582589288899</v>
       </c>
       <c r="H96">
         <f t="shared" si="26"/>
-        <v>0.21499860491032799</v>
+        <v>0.19710379464274705</v>
       </c>
       <c r="I96">
         <f t="shared" si="27"/>
-        <v>0.24150390625032903</v>
+        <v>0.24387555803262995</v>
       </c>
       <c r="J96">
         <f t="shared" si="28"/>
@@ -11193,15 +11193,15 @@
     </row>
     <row r="97" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G97">
-        <v>0.23763950892889008</v>
+        <v>0.23938337053603997</v>
       </c>
       <c r="H97">
         <f t="shared" si="26"/>
-        <v>0.21503208705318597</v>
+        <v>0.19726004464274804</v>
       </c>
       <c r="I97">
         <f t="shared" si="27"/>
-        <v>0.24150390625032903</v>
+        <v>0.24387555803262995</v>
       </c>
       <c r="J97">
         <f t="shared" si="28"/>
@@ -11210,15 +11210,15 @@
     </row>
     <row r="98" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G98">
-        <v>0.23705357142628003</v>
+        <v>4.9135044642929948E-2</v>
       </c>
       <c r="H98">
         <f t="shared" si="26"/>
-        <v>0.21571289062461602</v>
+        <v>0.19704101562489007</v>
       </c>
       <c r="I98">
         <f t="shared" si="27"/>
-        <v>0.24444754464318996</v>
+        <v>0.24387555803262995</v>
       </c>
       <c r="J98">
         <f t="shared" si="28"/>
@@ -11227,15 +11227,15 @@
     </row>
     <row r="99" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G99">
-        <v>0.23860212053223995</v>
+        <v>0.24387555803262995</v>
       </c>
       <c r="H99">
         <f t="shared" si="26"/>
-        <v>0.19505719866056398</v>
+        <v>0.21632672991063009</v>
       </c>
       <c r="I99">
         <f t="shared" si="27"/>
-        <v>0.24444754464318996</v>
+        <v>0.24387555803262995</v>
       </c>
       <c r="J99">
         <f t="shared" si="28"/>
@@ -11248,11 +11248,11 @@
       </c>
       <c r="H100">
         <f t="shared" si="26"/>
-        <v>0.19507254464308696</v>
+        <v>0.21630859374995709</v>
       </c>
       <c r="I100">
         <f t="shared" si="27"/>
-        <v>0.24444754464318996</v>
+        <v>0.24369419642590007</v>
       </c>
       <c r="J100">
         <f t="shared" si="28"/>
@@ -11261,172 +11261,172 @@
     </row>
     <row r="101" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G101">
-        <v>0.2398018973213909</v>
+        <v>0.23773716517853088</v>
       </c>
       <c r="H101">
         <f t="shared" si="26"/>
-        <v>0.21957310267848196</v>
+        <v>0.21841517857135506</v>
       </c>
       <c r="I101">
         <f t="shared" si="27"/>
-        <v>0.24500558035394993</v>
+        <v>0.24369419642590007</v>
       </c>
       <c r="J101">
         <f t="shared" si="28"/>
-        <v>3.0496651785759887E-2</v>
+        <v>2.106584821397961E-2</v>
       </c>
     </row>
     <row r="102" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G102">
-        <v>0.23882533482175405</v>
+        <v>0.24273158482175999</v>
       </c>
       <c r="H102">
         <f t="shared" si="26"/>
-        <v>0.21732545882926985</v>
+        <v>0.21626829117055774</v>
       </c>
       <c r="I102">
         <f t="shared" si="27"/>
-        <v>0.24500558035394993</v>
+        <v>0.24369419642590007</v>
       </c>
       <c r="J102">
         <f t="shared" si="28"/>
-        <v>3.0496651785759887E-2</v>
+        <v>2.106584821397961E-2</v>
       </c>
     </row>
     <row r="103" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G103">
-        <v>0.23982979910747004</v>
+        <v>0.23949497767889794</v>
       </c>
       <c r="H103">
         <f t="shared" si="26"/>
-        <v>0.21463797433020934</v>
+        <v>0.21296037946415744</v>
       </c>
       <c r="I103">
         <f t="shared" si="27"/>
-        <v>0.24500558035394993</v>
+        <v>0.24369419642590007</v>
       </c>
       <c r="J103">
         <f t="shared" si="28"/>
-        <v>3.0496651785759887E-2</v>
+        <v>2.106584821397961E-2</v>
       </c>
     </row>
     <row r="104" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G104">
-        <v>0.24150390625032903</v>
+        <v>0.24016462053604204</v>
       </c>
       <c r="H104">
         <f t="shared" si="26"/>
-        <v>0.21103914221917205</v>
+        <v>0.20916972257633737</v>
       </c>
       <c r="I104">
         <f t="shared" si="27"/>
-        <v>0.24500558035394993</v>
+        <v>0.24369419642590007</v>
       </c>
       <c r="J104">
         <f t="shared" si="28"/>
-        <v>3.0496651785759887E-2</v>
+        <v>2.106584821397961E-2</v>
       </c>
     </row>
     <row r="105" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G105">
-        <v>0.23830915178603596</v>
+        <v>0.24165736607174992</v>
       </c>
       <c r="H105">
         <f t="shared" si="26"/>
-        <v>0.20596168154731256</v>
+        <v>0.20400390624971995</v>
       </c>
       <c r="I105">
         <f t="shared" si="27"/>
-        <v>0.24500558035394993</v>
+        <v>0.24369419642590007</v>
       </c>
       <c r="J105">
         <f t="shared" si="28"/>
-        <v>3.0496651785759887E-2</v>
+        <v>2.106584821397961E-2</v>
       </c>
     </row>
     <row r="106" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G106">
-        <v>0.23875558035746991</v>
+        <v>0.23842075892890002</v>
       </c>
       <c r="H106">
         <f t="shared" si="26"/>
-        <v>0.19949218749956793</v>
+        <v>0.19647321428531392</v>
       </c>
       <c r="I106">
         <f t="shared" si="27"/>
-        <v>0.24500558035394993</v>
+        <v>0.24369419642590007</v>
       </c>
       <c r="J106">
         <f t="shared" si="28"/>
-        <v>3.0496651785759887E-2</v>
+        <v>2.106584821397961E-2</v>
       </c>
     </row>
     <row r="107" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G107">
-        <v>0.24444754464318996</v>
+        <v>0.23719308035746001</v>
       </c>
       <c r="H107">
         <f t="shared" si="26"/>
-        <v>0.18967633928509242</v>
+        <v>0.1859863281244174</v>
       </c>
       <c r="I107">
         <f t="shared" si="27"/>
-        <v>0.24500558035394993</v>
+        <v>0.24369419642590007</v>
       </c>
       <c r="J107">
         <f t="shared" si="28"/>
-        <v>3.0496651785759887E-2</v>
+        <v>2.106584821397961E-2</v>
       </c>
     </row>
     <row r="108" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G108">
-        <v>3.0496651785759887E-2</v>
+        <v>0.24199218750032991</v>
       </c>
       <c r="H108">
         <f t="shared" si="26"/>
-        <v>0.17141927083239325</v>
+        <v>0.16891741071340319</v>
       </c>
       <c r="I108">
         <f t="shared" si="27"/>
-        <v>0.24500558035394993</v>
+        <v>0.24369419642590007</v>
       </c>
       <c r="J108">
         <f t="shared" si="28"/>
-        <v>3.0496651785759887E-2</v>
+        <v>2.106584821397961E-2</v>
       </c>
     </row>
     <row r="109" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G109">
-        <v>0.23875558035746991</v>
+        <v>0.24369419642590007</v>
       </c>
       <c r="H109">
         <f t="shared" si="26"/>
-        <v>0.24188058035570992</v>
+        <v>0.13238002231993984</v>
       </c>
       <c r="I109">
         <f t="shared" si="27"/>
-        <v>0.24500558035394993</v>
+        <v>0.24369419642590007</v>
       </c>
       <c r="J109">
         <f t="shared" si="28"/>
-        <v>0.23875558035746991</v>
+        <v>2.106584821397961E-2</v>
       </c>
     </row>
     <row r="110" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G110">
-        <v>0.24500558035394993</v>
+        <v>2.106584821397961E-2</v>
       </c>
       <c r="H110">
         <f t="shared" si="26"/>
-        <v>0.24500558035394993</v>
+        <v>2.106584821397961E-2</v>
       </c>
       <c r="I110">
         <f t="shared" si="27"/>
-        <v>0.24500558035394993</v>
+        <v>2.106584821397961E-2</v>
       </c>
       <c r="J110">
         <f t="shared" si="28"/>
-        <v>0.24500558035394993</v>
+        <v>2.106584821397961E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11440,8 +11440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEF60D8-8EE4-4535-BD36-9220E17142E5}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11465,10 +11465,10 @@
         <v>0.05</v>
       </c>
       <c r="B2" s="1">
-        <v>0.235371</v>
+        <v>0.21320900000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>8696</v>
+        <v>8639</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -11476,10 +11476,10 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.23531199999999999</v>
+        <v>0.23513999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>8699</v>
+        <v>8705</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -11487,10 +11487,10 @@
         <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>0.235184</v>
+        <v>0.23528299999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>8703</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -11498,10 +11498,10 @@
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.23541999999999999</v>
+        <v>0.23474300000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>8695</v>
+        <v>8720</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -11509,10 +11509,10 @@
         <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.213869</v>
+        <v>0.21228</v>
       </c>
       <c r="C6" s="1">
-        <v>8612</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -11520,10 +11520,10 @@
         <v>0.3</v>
       </c>
       <c r="B7" s="1">
-        <v>0.23524700000000001</v>
+        <v>0.23569899999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>8701</v>
+        <v>8684</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -11531,10 +11531,10 @@
         <v>0.35</v>
       </c>
       <c r="B8" s="1">
-        <v>0.23613999999999999</v>
+        <v>0.23629</v>
       </c>
       <c r="C8" s="1">
-        <v>8668</v>
+        <v>8663</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -11542,10 +11542,10 @@
         <v>0.4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.23629900000000001</v>
+        <v>0.23685999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>8662</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -11553,10 +11553,10 @@
         <v>0.45</v>
       </c>
       <c r="B10" s="1">
-        <v>0.23772699999999999</v>
+        <v>0.21887599999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>8610</v>
+        <v>8415</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -11564,10 +11564,10 @@
         <v>0.49</v>
       </c>
       <c r="B11" s="1">
-        <v>0.21957299999999999</v>
+        <v>0.218415</v>
       </c>
       <c r="C11" s="1">
-        <v>8389</v>
+        <v>8433</v>
       </c>
     </row>
   </sheetData>
